--- a/02 - config/example_big/agents.xlsx
+++ b/02 - config/example_big/agents.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="294">
   <si>
     <t>general/agent_id</t>
   </si>
@@ -459,357 +459,363 @@
     <t>meter/prob_missing</t>
   </si>
   <si>
-    <t>CAQ4qbKndqVO5KP</t>
-  </si>
-  <si>
-    <t>P05FuuJKAHoBtll</t>
-  </si>
-  <si>
-    <t>38JpW7PalZEayze</t>
-  </si>
-  <si>
-    <t>OrzVnFyFf8KDWZb</t>
-  </si>
-  <si>
-    <t>0jX330LTbs2R0pg</t>
-  </si>
-  <si>
-    <t>qm3wd3abNgNc06L</t>
-  </si>
-  <si>
-    <t>JbNr6emSGvLnXxr</t>
-  </si>
-  <si>
-    <t>fpCwBkrz7WURF2f</t>
-  </si>
-  <si>
-    <t>mlNdcfxpXKZxCp7</t>
-  </si>
-  <si>
-    <t>bGXeG7MNEBuSaN5</t>
-  </si>
-  <si>
-    <t>hh_3564_0.csv</t>
+    <t>CbexoZi4qm8D0Zc</t>
+  </si>
+  <si>
+    <t>aG3SyfMfhy3mHmP</t>
+  </si>
+  <si>
+    <t>jFURx0Lil3RSKR0</t>
+  </si>
+  <si>
+    <t>xtL6fGWkujPMeq3</t>
+  </si>
+  <si>
+    <t>0lNKjYQAP2yc8OD</t>
+  </si>
+  <si>
+    <t>99WJQyTvUPPcw5h</t>
+  </si>
+  <si>
+    <t>hSGEpfFSIvUZND9</t>
+  </si>
+  <si>
+    <t>f6j6zw4S96gvNA0</t>
+  </si>
+  <si>
+    <t>qjPm2il391BNsHD</t>
+  </si>
+  <si>
+    <t>AuguuDTKAfMfA41</t>
+  </si>
+  <si>
+    <t>hh_2687_0.csv</t>
+  </si>
+  <si>
+    <t>hh_2012_3.csv</t>
   </si>
   <si>
     <t>hh_5527_0.csv</t>
   </si>
   <si>
-    <t>hh_2532_0.csv</t>
-  </si>
-  <si>
     <t>hh_4536_0.csv</t>
   </si>
   <si>
     <t>hh_3648_0.csv</t>
   </si>
   <si>
+    <t>hh_3296_0.csv</t>
+  </si>
+  <si>
+    <t>naive_average</t>
+  </si>
+  <si>
+    <t>[2, 0, 2, 2, 0, 0, 96, 2, 0, 0, 672]</t>
+  </si>
+  <si>
+    <t>heat_2687_0.csv</t>
+  </si>
+  <si>
+    <t>heat_2012_3.csv</t>
+  </si>
+  <si>
+    <t>heat_gen_2_pu.csv</t>
+  </si>
+  <si>
+    <t>heat_4536_0.csv</t>
+  </si>
+  <si>
+    <t>heat_gen_1_pu.csv</t>
+  </si>
+  <si>
+    <t>heat_3648_0.csv</t>
+  </si>
+  <si>
+    <t>heat_5527_0.csv</t>
+  </si>
+  <si>
+    <t>heat_3296_0.csv</t>
+  </si>
+  <si>
+    <t>dhw_gen_4_pu.csv</t>
+  </si>
+  <si>
+    <t>dhw_gen_6_pu.csv</t>
+  </si>
+  <si>
+    <t>dhw_gen_1_pu.csv</t>
+  </si>
+  <si>
+    <t>dhw_gen_5_pu.csv</t>
+  </si>
+  <si>
+    <t>dhw_gen_3_pu.csv</t>
+  </si>
+  <si>
+    <t>dhw_gen_2_pu.csv</t>
+  </si>
+  <si>
+    <t>dhw_gen_0_pu.csv</t>
+  </si>
+  <si>
+    <t>pv_config.json</t>
+  </si>
+  <si>
+    <t>smoothed</t>
+  </si>
+  <si>
+    <t>green_local</t>
+  </si>
+  <si>
+    <t>wind_Siemens_SWT-3.6-130_3600000_130.json</t>
+  </si>
+  <si>
+    <t>wind_Enercon_E-53-800_800000_53.json</t>
+  </si>
+  <si>
+    <t>wind_Enercon_E-101-3500-E2_3500000_101.json</t>
+  </si>
+  <si>
+    <t>wind_Nordex_MM92_3300000_131.json</t>
+  </si>
+  <si>
+    <t>weather</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>ev_fulltime_46.csv</t>
+  </si>
+  <si>
+    <t>ev_fulltime_45.csv</t>
+  </si>
+  <si>
+    <t>ev_parttime_88.csv</t>
+  </si>
+  <si>
+    <t>ev_fulltime_41.csv</t>
+  </si>
+  <si>
+    <t>price_sensitive</t>
+  </si>
+  <si>
+    <t>ev_close</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>naive</t>
+  </si>
+  <si>
+    <t>linear</t>
+  </si>
+  <si>
+    <t>general/sub_id</t>
+  </si>
+  <si>
+    <t>general/parameters/apartments_independent</t>
+  </si>
+  <si>
+    <t>general/parameters/apartments</t>
+  </si>
+  <si>
+    <t>vutoQyhLMOcs2Jw</t>
+  </si>
+  <si>
+    <t>ggrAzbXks782JvB</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>1yEfSiKpaomiSJt</t>
+  </si>
+  <si>
+    <t>Qxj1ccJswBostlw</t>
+  </si>
+  <si>
+    <t>0e7auEOnWphCJeX</t>
+  </si>
+  <si>
+    <t>H5GfqhLn9fCXzdh</t>
+  </si>
+  <si>
+    <t>2opnkZbKOEcNmJZ</t>
+  </si>
+  <si>
+    <t>1v2tD6aTEFMop1H</t>
+  </si>
+  <si>
+    <t>DcRAC5EafjR5z77</t>
+  </si>
+  <si>
+    <t>vMkxCH1gK5XqeEO</t>
+  </si>
+  <si>
+    <t>PqNQUMtmOCyDkqu</t>
+  </si>
+  <si>
+    <t>cVivoURlWnTwNIW</t>
+  </si>
+  <si>
+    <t>4iDdQBxnutgPHo1</t>
+  </si>
+  <si>
+    <t>BbuuTysUSo9FMdP</t>
+  </si>
+  <si>
+    <t>fjtT81mG3c8crBj</t>
+  </si>
+  <si>
+    <t>8DGWUwR0YSyawcq</t>
+  </si>
+  <si>
     <t>hh_2455_0.csv</t>
   </si>
   <si>
-    <t>naive_average</t>
-  </si>
-  <si>
-    <t>[2, 0, 2, 2, 0, 0, 96, 2, 0, 0, 672]</t>
+    <t>hh_1720_0.csv</t>
+  </si>
+  <si>
+    <t>hh_1266_0.csv</t>
+  </si>
+  <si>
+    <t>hh_1546_2.csv</t>
+  </si>
+  <si>
+    <t>hh_2262_0.csv</t>
+  </si>
+  <si>
+    <t>hh_2896_0.csv</t>
+  </si>
+  <si>
+    <t>hh_1009_1.csv</t>
+  </si>
+  <si>
+    <t>heat_gen_0_pu.csv</t>
+  </si>
+  <si>
+    <t>heat_gen_5_pu.csv</t>
   </si>
   <si>
     <t>heat_gen_4_pu.csv</t>
   </si>
   <si>
-    <t>heat_5527_0.csv</t>
-  </si>
-  <si>
-    <t>heat_gen_2_pu.csv</t>
-  </si>
-  <si>
-    <t>heat_4536_0.csv</t>
-  </si>
-  <si>
-    <t>heat_3648_0.csv</t>
-  </si>
-  <si>
-    <t>heat_2455_0.csv</t>
-  </si>
-  <si>
-    <t>heat_gen_3_pu.csv</t>
-  </si>
-  <si>
-    <t>dhw_gen_5_pu.csv</t>
-  </si>
-  <si>
-    <t>dhw_gen_6_pu.csv</t>
-  </si>
-  <si>
-    <t>dhw_gen_3_pu.csv</t>
-  </si>
-  <si>
-    <t>dhw_gen_0_pu.csv</t>
-  </si>
-  <si>
-    <t>pv_config.json</t>
-  </si>
-  <si>
-    <t>smoothed</t>
-  </si>
-  <si>
-    <t>green_local</t>
-  </si>
-  <si>
-    <t>wind_Nordex_MM92_3300000_131.json</t>
-  </si>
-  <si>
-    <t>wind_Enercon_E-53-800_800000_53.json</t>
-  </si>
-  <si>
-    <t>wind_Enercon_E-101-3500-E2_3500000_101.json</t>
-  </si>
-  <si>
-    <t>weather</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>ev_fulltime_45.csv</t>
+    <t>pv_2_pu.csv</t>
+  </si>
+  <si>
+    <t>pv_1_pu.csv</t>
+  </si>
+  <si>
+    <t>fixed_gen_1_pu.csv</t>
+  </si>
+  <si>
+    <t>ev_fulltime_42.csv</t>
   </si>
   <si>
     <t>ev_parttime_90.csv</t>
   </si>
   <si>
-    <t>ev_fulltime_42.csv</t>
-  </si>
-  <si>
-    <t>ev_fulltime_43.csv</t>
-  </si>
-  <si>
-    <t>ev_freetime_2.csv</t>
-  </si>
-  <si>
-    <t>price_sensitive</t>
-  </si>
-  <si>
-    <t>ev_close</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>naive</t>
-  </si>
-  <si>
-    <t>linear</t>
-  </si>
-  <si>
-    <t>general/sub_id</t>
-  </si>
-  <si>
-    <t>general/parameters/apartments_independent</t>
-  </si>
-  <si>
-    <t>general/parameters/apartments</t>
-  </si>
-  <si>
-    <t>fIN6RLaCSLIs34X</t>
-  </si>
-  <si>
-    <t>faG89XBS8LQGBIT</t>
-  </si>
-  <si>
-    <t>main</t>
-  </si>
-  <si>
-    <t>DPpRmoJAzEyUctg</t>
-  </si>
-  <si>
-    <t>eDCcydDkFdMhdg6</t>
-  </si>
-  <si>
-    <t>Zt7eMmbkydw68ro</t>
-  </si>
-  <si>
-    <t>b1bKdSrNn09lvTL</t>
-  </si>
-  <si>
-    <t>WDMMWj3CdvUYmAc</t>
-  </si>
-  <si>
-    <t>Rly2SV5bAywPsti</t>
-  </si>
-  <si>
-    <t>h0EK54BR0dStnX6</t>
-  </si>
-  <si>
-    <t>LWywX8b1UW7qsIv</t>
-  </si>
-  <si>
-    <t>n1aHpiesYKwTEdw</t>
-  </si>
-  <si>
-    <t>GXOwNhY6LN4QB5k</t>
-  </si>
-  <si>
-    <t>mI1HMp7xzXEQPVM</t>
-  </si>
-  <si>
-    <t>ligakxWTagqsUtW</t>
-  </si>
-  <si>
-    <t>2u0caNRWq8dkQXY</t>
-  </si>
-  <si>
-    <t>LLV6xoRvQ98GtrC</t>
-  </si>
-  <si>
-    <t>hh_2262_0.csv</t>
-  </si>
-  <si>
-    <t>hh_1720_0.csv</t>
-  </si>
-  <si>
-    <t>hh_1158_4.csv</t>
-  </si>
-  <si>
-    <t>hh_2687_0.csv</t>
-  </si>
-  <si>
-    <t>hh_1546_2.csv</t>
-  </si>
-  <si>
-    <t>hh_2012_3.csv</t>
-  </si>
-  <si>
-    <t>hh_2896_0.csv</t>
-  </si>
-  <si>
-    <t>hh_945_1.csv</t>
-  </si>
-  <si>
-    <t>heat_gen_0_pu.csv</t>
-  </si>
-  <si>
-    <t>heat_gen_1_pu.csv</t>
-  </si>
-  <si>
-    <t>dhw_gen_2_pu.csv</t>
-  </si>
-  <si>
-    <t>dhw_gen_4_pu.csv</t>
-  </si>
-  <si>
-    <t>dhw_gen_1_pu.csv</t>
-  </si>
-  <si>
-    <t>pv_2_pu.csv</t>
+    <t>ev_fulltime_49.csv</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>general/parameters/type</t>
+  </si>
+  <si>
+    <t>general/fcast_retraining_frequency</t>
+  </si>
+  <si>
+    <t>zroNiiCe0GBCL2g</t>
+  </si>
+  <si>
+    <t>uSpTda3baDryzyi</t>
+  </si>
+  <si>
+    <t>AHxxivSKpippvvg</t>
+  </si>
+  <si>
+    <t>g2c72bTBUkns839</t>
+  </si>
+  <si>
+    <t>office</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>office_pu_0.csv</t>
+  </si>
+  <si>
+    <t>retail_pu_0.csv</t>
+  </si>
+  <si>
+    <t>ev_freetime_1.csv</t>
+  </si>
+  <si>
+    <t>ev_fulltime_48.csv</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>9Iv1qVtDrH8b06h</t>
+  </si>
+  <si>
+    <t>43cmHFwuwaTpW5J</t>
+  </si>
+  <si>
+    <t>tobacco</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>tobacco_pu_0.csv</t>
+  </si>
+  <si>
+    <t>food_pu_0.csv</t>
+  </si>
+  <si>
+    <t>R5EKnaf9eQmFF0J</t>
+  </si>
+  <si>
+    <t>XVa8gEvJKsAmeLd</t>
+  </si>
+  <si>
+    <t>uBhuMZ3jeMafpsA</t>
+  </si>
+  <si>
+    <t>ZmtU6It7cUgj0JY</t>
+  </si>
+  <si>
+    <t>CxR1oqbqIf9LamV</t>
+  </si>
+  <si>
+    <t>m8PnE8oAxkCt7c1</t>
   </si>
   <si>
     <t>pv_3_pu.csv</t>
   </si>
   <si>
-    <t>fixed_gen_1_pu.csv</t>
-  </si>
-  <si>
-    <t>ev_freetime_3.csv</t>
-  </si>
-  <si>
-    <t>ev_fulltime_49.csv</t>
-  </si>
-  <si>
-    <t>o</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>_</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>general/parameters/type</t>
-  </si>
-  <si>
-    <t>general/fcast_retraining_frequency</t>
-  </si>
-  <si>
-    <t>MiMOLDWdvO8Wy78</t>
-  </si>
-  <si>
-    <t>LmWc11DTOn0d34C</t>
-  </si>
-  <si>
-    <t>pR9hLQSVdZLInjy</t>
-  </si>
-  <si>
-    <t>d6WTzfkMUtlLlDo</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>office</t>
-  </si>
-  <si>
-    <t>retail_pu_0.csv</t>
-  </si>
-  <si>
-    <t>office_pu_0.csv</t>
-  </si>
-  <si>
-    <t>pv_1_pu.csv</t>
-  </si>
-  <si>
-    <t>QnFhm1Pv1aaVe0g</t>
-  </si>
-  <si>
-    <t>QOE3HKoozDCq8tw</t>
-  </si>
-  <si>
-    <t>tobacco</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>tobacco_pu_0.csv</t>
-  </si>
-  <si>
-    <t>food_pu_0.csv</t>
-  </si>
-  <si>
-    <t>wind_Siemens_SWT-3.6-130_3600000_130.json</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>kWZJYPkjAMgoDTy</t>
-  </si>
-  <si>
-    <t>Xt6DSBzm6ZkFE2b</t>
-  </si>
-  <si>
-    <t>e4NO5d4L5ogT5e1</t>
-  </si>
-  <si>
-    <t>kHfE5aklazt9gY8</t>
-  </si>
-  <si>
-    <t>MbYREwE6tBPw9O8</t>
-  </si>
-  <si>
-    <t>BDhRg5rXQtx9OCW</t>
-  </si>
-  <si>
     <t>psh/owner</t>
   </si>
   <si>
@@ -870,31 +876,31 @@
     <t>hydrogen/quality</t>
   </si>
   <si>
-    <t>VpVR0SQWDVXCpS0</t>
-  </si>
-  <si>
-    <t>sKBLdqZTKGHC4b4</t>
-  </si>
-  <si>
-    <t>PKrckh0Gawj8Y7F</t>
-  </si>
-  <si>
-    <t>Mc1s4lH5J7oAYcD</t>
-  </si>
-  <si>
-    <t>ZnZ0VFZkWBQuGen</t>
-  </si>
-  <si>
-    <t>0UaMMVpfNCH8L0A</t>
-  </si>
-  <si>
-    <t>N7C5Izpti9DJles</t>
-  </si>
-  <si>
-    <t>pLVa3kyoqiBUhUx</t>
-  </si>
-  <si>
-    <t>yAHbtlZFRelcTi6</t>
+    <t>FcA5k3bmzdPDw6d</t>
+  </si>
+  <si>
+    <t>KMQiDJtxSmL0KUh</t>
+  </si>
+  <si>
+    <t>TxTqzNHvWeglOtg</t>
+  </si>
+  <si>
+    <t>1Zyp0JqLgNp8pjC</t>
+  </si>
+  <si>
+    <t>bgCPDb87tpOldEi</t>
+  </si>
+  <si>
+    <t>KMzbxGDXRcXyncj</t>
+  </si>
+  <si>
+    <t>etHm4s2whU7L0ei</t>
+  </si>
+  <si>
+    <t>OsUwiSrPFtJQqbQ</t>
+  </si>
+  <si>
+    <t>3moFz4UqRzgfDNk</t>
   </si>
 </sst>
 </file>
@@ -1706,10 +1712,10 @@
         <v>146</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -1718,7 +1724,7 @@
         <v>2.6</v>
       </c>
       <c r="J2">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -1733,7 +1739,7 @@
         <v>1</v>
       </c>
       <c r="O2">
-        <v>3564000</v>
+        <v>2687000</v>
       </c>
       <c r="P2" t="s">
         <v>156</v>
@@ -1784,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="AH2">
-        <v>5500000</v>
+        <v>19500000</v>
       </c>
       <c r="AI2" t="s">
         <v>164</v>
@@ -1817,10 +1823,10 @@
         <v>1</v>
       </c>
       <c r="AS2">
-        <v>2400000</v>
+        <v>3200000</v>
       </c>
       <c r="AT2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AU2">
         <v>55</v>
@@ -1841,31 +1847,16 @@
         <v>90</v>
       </c>
       <c r="BA2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC2" t="b">
         <v>1</v>
       </c>
-      <c r="BD2">
-        <v>5800</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>175</v>
-      </c>
-      <c r="BF2">
-        <v>0</v>
-      </c>
-      <c r="BG2">
-        <v>40</v>
-      </c>
-      <c r="BH2" t="b">
-        <v>1</v>
-      </c>
       <c r="BI2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="BJ2">
         <v>2</v>
@@ -1874,29 +1865,38 @@
         <v>9</v>
       </c>
       <c r="BL2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="BM2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO2" t="b">
         <v>1</v>
       </c>
+      <c r="BP2">
+        <v>1100</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>182</v>
+      </c>
+      <c r="BR2" t="b">
+        <v>1</v>
+      </c>
       <c r="BS2" t="s">
+        <v>186</v>
+      </c>
+      <c r="BT2">
+        <v>2</v>
+      </c>
+      <c r="BU2">
+        <v>9</v>
+      </c>
+      <c r="BV2" t="s">
         <v>181</v>
       </c>
-      <c r="BT2">
-        <v>2</v>
-      </c>
-      <c r="BU2">
-        <v>9</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>177</v>
-      </c>
       <c r="BW2">
         <v>0</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>1</v>
       </c>
       <c r="CC2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="CD2">
         <v>2</v>
@@ -1916,7 +1916,7 @@
         <v>9</v>
       </c>
       <c r="CF2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CG2">
         <v>0</v>
@@ -1928,7 +1928,7 @@
         <v>1</v>
       </c>
       <c r="CL2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CM2">
         <v>1</v>
@@ -1940,22 +1940,22 @@
         <v>1</v>
       </c>
       <c r="CP2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="CQ2">
+        <v>75000</v>
+      </c>
+      <c r="CR2">
+        <v>20000</v>
+      </c>
+      <c r="CS2">
+        <v>7200</v>
+      </c>
+      <c r="CT2">
+        <v>11000</v>
+      </c>
+      <c r="CU2">
         <v>100000</v>
-      </c>
-      <c r="CR2">
-        <v>25000</v>
-      </c>
-      <c r="CS2">
-        <v>11000</v>
-      </c>
-      <c r="CT2">
-        <v>22000</v>
-      </c>
-      <c r="CU2">
-        <v>200000</v>
       </c>
       <c r="CV2">
         <v>0.9</v>
@@ -1970,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="CZ2" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="DA2">
-        <v>75000</v>
+        <v>50000</v>
       </c>
       <c r="DB2">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="DC2">
         <v>7200</v>
       </c>
       <c r="DD2">
-        <v>11000</v>
+        <v>7200</v>
       </c>
       <c r="DE2">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="DF2">
         <v>0.9</v>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="DJ2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="DK2">
         <v>0.05</v>
@@ -2015,10 +2015,10 @@
         <v>8.5</v>
       </c>
       <c r="DO2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="DP2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="DQ2">
         <v>0</v>
@@ -2027,10 +2027,10 @@
         <v>0</v>
       </c>
       <c r="DS2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="DZ2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="EA2">
         <v>0</v>
@@ -2039,28 +2039,28 @@
         <v>0</v>
       </c>
       <c r="EC2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="EH2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="EI2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="EJ2">
         <v>96</v>
       </c>
       <c r="EK2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="EL2">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="EM2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="EN2">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="EO2">
         <v>0</v>
@@ -2107,7 +2107,7 @@
         <v>1</v>
       </c>
       <c r="O3">
-        <v>5527000</v>
+        <v>2012000</v>
       </c>
       <c r="P3" t="s">
         <v>157</v>
@@ -2164,7 +2164,7 @@
         <v>165</v>
       </c>
       <c r="AJ3">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="AK3" t="s">
         <v>162</v>
@@ -2191,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="AS3">
-        <v>2400000</v>
+        <v>2100000</v>
       </c>
       <c r="AT3" t="s">
         <v>172</v>
@@ -2224,7 +2224,7 @@
         <v>1</v>
       </c>
       <c r="BI3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="BJ3">
         <v>2</v>
@@ -2233,7 +2233,7 @@
         <v>9</v>
       </c>
       <c r="BL3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="BM3">
         <v>0</v>
@@ -2245,17 +2245,17 @@
         <v>1</v>
       </c>
       <c r="BS3" t="s">
+        <v>186</v>
+      </c>
+      <c r="BT3">
+        <v>2</v>
+      </c>
+      <c r="BU3">
+        <v>9</v>
+      </c>
+      <c r="BV3" t="s">
         <v>181</v>
       </c>
-      <c r="BT3">
-        <v>2</v>
-      </c>
-      <c r="BU3">
-        <v>9</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>177</v>
-      </c>
       <c r="BW3">
         <v>0</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>1</v>
       </c>
       <c r="CC3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="CD3">
         <v>2</v>
@@ -2275,7 +2275,7 @@
         <v>9</v>
       </c>
       <c r="CF3" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CG3">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>1</v>
       </c>
       <c r="CL3" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CM3">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>1</v>
       </c>
       <c r="DJ3" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="DK3">
         <v>0.05</v>
@@ -2314,10 +2314,10 @@
         <v>8.5</v>
       </c>
       <c r="DO3" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="DP3" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="DQ3">
         <v>0</v>
@@ -2326,10 +2326,10 @@
         <v>0</v>
       </c>
       <c r="DS3" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="DZ3" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="EA3">
         <v>0</v>
@@ -2338,28 +2338,28 @@
         <v>0</v>
       </c>
       <c r="EC3" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="EH3" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="EI3" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="EJ3">
         <v>96</v>
       </c>
       <c r="EK3" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="EL3">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="EM3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="EN3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="EO3">
         <v>0</v>
@@ -2379,10 +2379,10 @@
         <v>148</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -2391,7 +2391,7 @@
         <v>2.6</v>
       </c>
       <c r="J4">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -2406,7 +2406,7 @@
         <v>1</v>
       </c>
       <c r="O4">
-        <v>2532000</v>
+        <v>5527000</v>
       </c>
       <c r="P4" t="s">
         <v>158</v>
@@ -2457,7 +2457,7 @@
         <v>1</v>
       </c>
       <c r="AH4">
-        <v>5500000</v>
+        <v>19500000</v>
       </c>
       <c r="AI4" t="s">
         <v>166</v>
@@ -2490,7 +2490,7 @@
         <v>1</v>
       </c>
       <c r="AS4">
-        <v>1800000</v>
+        <v>2800000</v>
       </c>
       <c r="AT4" t="s">
         <v>173</v>
@@ -2523,10 +2523,10 @@
         <v>1</v>
       </c>
       <c r="BD4">
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="BE4" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="BF4">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>1</v>
       </c>
       <c r="BI4" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="BJ4">
         <v>2</v>
@@ -2547,7 +2547,7 @@
         <v>9</v>
       </c>
       <c r="BL4" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="BM4">
         <v>1</v>
@@ -2559,26 +2559,26 @@
         <v>1</v>
       </c>
       <c r="BP4">
-        <v>2100</v>
+        <v>3500</v>
       </c>
       <c r="BQ4" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="BR4" t="b">
         <v>1</v>
       </c>
       <c r="BS4" t="s">
+        <v>186</v>
+      </c>
+      <c r="BT4">
+        <v>2</v>
+      </c>
+      <c r="BU4">
+        <v>9</v>
+      </c>
+      <c r="BV4" t="s">
         <v>181</v>
       </c>
-      <c r="BT4">
-        <v>2</v>
-      </c>
-      <c r="BU4">
-        <v>9</v>
-      </c>
-      <c r="BV4" t="s">
-        <v>177</v>
-      </c>
       <c r="BW4">
         <v>0</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>1</v>
       </c>
       <c r="CC4" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="CD4">
         <v>2</v>
@@ -2598,7 +2598,7 @@
         <v>9</v>
       </c>
       <c r="CF4" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CG4">
         <v>0</v>
@@ -2610,7 +2610,7 @@
         <v>1</v>
       </c>
       <c r="CL4" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CM4">
         <v>1</v>
@@ -2622,7 +2622,7 @@
         <v>1</v>
       </c>
       <c r="CP4" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="CQ4">
         <v>50000</v>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="DJ4" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="DK4">
         <v>0.05</v>
@@ -2667,10 +2667,10 @@
         <v>8.5</v>
       </c>
       <c r="DO4" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="DP4" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="DQ4">
         <v>1</v>
@@ -2679,13 +2679,13 @@
         <v>1</v>
       </c>
       <c r="DS4" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="DT4">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="DU4">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="DV4">
         <v>0.95</v>
@@ -2700,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="DZ4" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="EA4">
         <v>0</v>
@@ -2709,28 +2709,28 @@
         <v>0</v>
       </c>
       <c r="EC4" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="EH4" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="EI4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="EJ4">
         <v>96</v>
       </c>
       <c r="EK4" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="EL4">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="EM4" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="EN4">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="EO4">
         <v>0</v>
@@ -2750,10 +2750,10 @@
         <v>149</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -2762,7 +2762,7 @@
         <v>2.6</v>
       </c>
       <c r="J5">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -2828,7 +2828,7 @@
         <v>1</v>
       </c>
       <c r="AH5">
-        <v>19500000</v>
+        <v>5500000</v>
       </c>
       <c r="AI5" t="s">
         <v>167</v>
@@ -2861,10 +2861,10 @@
         <v>1</v>
       </c>
       <c r="AS5">
-        <v>2400000</v>
+        <v>2100000</v>
       </c>
       <c r="AT5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AU5">
         <v>55</v>
@@ -2894,22 +2894,22 @@
         <v>1</v>
       </c>
       <c r="BD5">
-        <v>6400</v>
+        <v>7400</v>
       </c>
       <c r="BE5" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="BF5">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="BH5" t="b">
         <v>1</v>
       </c>
       <c r="BI5" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="BJ5">
         <v>2</v>
@@ -2918,7 +2918,7 @@
         <v>9</v>
       </c>
       <c r="BL5" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="BM5">
         <v>1</v>
@@ -2930,26 +2930,26 @@
         <v>1</v>
       </c>
       <c r="BP5">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="BQ5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="BR5" t="b">
         <v>1</v>
       </c>
       <c r="BS5" t="s">
+        <v>186</v>
+      </c>
+      <c r="BT5">
+        <v>2</v>
+      </c>
+      <c r="BU5">
+        <v>9</v>
+      </c>
+      <c r="BV5" t="s">
         <v>181</v>
       </c>
-      <c r="BT5">
-        <v>2</v>
-      </c>
-      <c r="BU5">
-        <v>9</v>
-      </c>
-      <c r="BV5" t="s">
-        <v>177</v>
-      </c>
       <c r="BW5">
         <v>0</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>1</v>
       </c>
       <c r="CC5" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="CD5">
         <v>2</v>
@@ -2969,7 +2969,7 @@
         <v>9</v>
       </c>
       <c r="CF5" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CG5">
         <v>0</v>
@@ -2981,19 +2981,49 @@
         <v>1</v>
       </c>
       <c r="CL5" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CM5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO5" t="b">
         <v>1</v>
       </c>
+      <c r="CP5" t="s">
+        <v>190</v>
+      </c>
+      <c r="CQ5">
+        <v>100000</v>
+      </c>
+      <c r="CR5">
+        <v>25000</v>
+      </c>
+      <c r="CS5">
+        <v>11000</v>
+      </c>
+      <c r="CT5">
+        <v>22000</v>
+      </c>
+      <c r="CU5">
+        <v>200000</v>
+      </c>
+      <c r="CV5">
+        <v>0.9</v>
+      </c>
+      <c r="CW5">
+        <v>0.8</v>
+      </c>
+      <c r="CX5" t="b">
+        <v>0</v>
+      </c>
+      <c r="CY5" t="b">
+        <v>0</v>
+      </c>
       <c r="DJ5" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="DK5">
         <v>0.05</v>
@@ -3008,10 +3038,10 @@
         <v>8.5</v>
       </c>
       <c r="DO5" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="DP5" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="DQ5">
         <v>0</v>
@@ -3020,10 +3050,10 @@
         <v>0</v>
       </c>
       <c r="DS5" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="DZ5" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="EA5">
         <v>0</v>
@@ -3032,28 +3062,28 @@
         <v>0</v>
       </c>
       <c r="EC5" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="EH5" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="EI5" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="EJ5">
         <v>96</v>
       </c>
       <c r="EK5" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="EL5">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="EM5" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="EN5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="EO5">
         <v>0</v>
@@ -3073,10 +3103,10 @@
         <v>150</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -3085,7 +3115,7 @@
         <v>2.6</v>
       </c>
       <c r="J6">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -3100,10 +3130,10 @@
         <v>1</v>
       </c>
       <c r="O6">
-        <v>5527000</v>
+        <v>3648000</v>
       </c>
       <c r="P6" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q6" t="s">
         <v>162</v>
@@ -3151,10 +3181,10 @@
         <v>1</v>
       </c>
       <c r="AH6">
-        <v>19500000</v>
+        <v>5500000</v>
       </c>
       <c r="AI6" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AJ6">
         <v>55</v>
@@ -3184,7 +3214,7 @@
         <v>1</v>
       </c>
       <c r="AS6">
-        <v>3200000</v>
+        <v>2100000</v>
       </c>
       <c r="AT6" t="s">
         <v>173</v>
@@ -3208,16 +3238,31 @@
         <v>90</v>
       </c>
       <c r="BA6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC6" t="b">
         <v>1</v>
       </c>
+      <c r="BD6">
+        <v>6300</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>179</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>40</v>
+      </c>
+      <c r="BH6" t="b">
+        <v>1</v>
+      </c>
       <c r="BI6" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="BJ6">
         <v>2</v>
@@ -3226,7 +3271,7 @@
         <v>9</v>
       </c>
       <c r="BL6" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="BM6">
         <v>0</v>
@@ -3238,17 +3283,17 @@
         <v>1</v>
       </c>
       <c r="BS6" t="s">
+        <v>186</v>
+      </c>
+      <c r="BT6">
+        <v>2</v>
+      </c>
+      <c r="BU6">
+        <v>9</v>
+      </c>
+      <c r="BV6" t="s">
         <v>181</v>
       </c>
-      <c r="BT6">
-        <v>2</v>
-      </c>
-      <c r="BU6">
-        <v>9</v>
-      </c>
-      <c r="BV6" t="s">
-        <v>177</v>
-      </c>
       <c r="BW6">
         <v>0</v>
       </c>
@@ -3259,7 +3304,7 @@
         <v>1</v>
       </c>
       <c r="CC6" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="CD6">
         <v>2</v>
@@ -3268,7 +3313,7 @@
         <v>9</v>
       </c>
       <c r="CF6" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CG6">
         <v>0</v>
@@ -3280,49 +3325,19 @@
         <v>1</v>
       </c>
       <c r="CL6" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CM6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO6" t="b">
         <v>1</v>
       </c>
-      <c r="CP6" t="s">
-        <v>185</v>
-      </c>
-      <c r="CQ6">
-        <v>50000</v>
-      </c>
-      <c r="CR6">
-        <v>15000</v>
-      </c>
-      <c r="CS6">
-        <v>7200</v>
-      </c>
-      <c r="CT6">
-        <v>7200</v>
-      </c>
-      <c r="CU6">
-        <v>50000</v>
-      </c>
-      <c r="CV6">
-        <v>0.9</v>
-      </c>
-      <c r="CW6">
-        <v>0.8</v>
-      </c>
-      <c r="CX6" t="b">
-        <v>0</v>
-      </c>
-      <c r="CY6" t="b">
-        <v>0</v>
-      </c>
       <c r="DJ6" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="DK6">
         <v>0.05</v>
@@ -3337,10 +3352,10 @@
         <v>8.5</v>
       </c>
       <c r="DO6" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="DP6" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="DQ6">
         <v>0</v>
@@ -3349,10 +3364,10 @@
         <v>0</v>
       </c>
       <c r="DS6" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="DZ6" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="EA6">
         <v>0</v>
@@ -3361,25 +3376,25 @@
         <v>0</v>
       </c>
       <c r="EC6" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="EH6" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="EI6" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="EJ6">
         <v>96</v>
       </c>
       <c r="EK6" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="EL6">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="EM6" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="EN6">
         <v>20</v>
@@ -3402,10 +3417,10 @@
         <v>151</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -3414,7 +3429,7 @@
         <v>2.6</v>
       </c>
       <c r="J7">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -3480,13 +3495,13 @@
         <v>1</v>
       </c>
       <c r="AH7">
-        <v>19500000</v>
+        <v>5500000</v>
       </c>
       <c r="AI7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AJ7">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AK7" t="s">
         <v>162</v>
@@ -3513,10 +3528,10 @@
         <v>1</v>
       </c>
       <c r="AS7">
-        <v>2800000</v>
+        <v>2400000</v>
       </c>
       <c r="AT7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="AU7">
         <v>55</v>
@@ -3546,22 +3561,22 @@
         <v>1</v>
       </c>
       <c r="BD7">
-        <v>5000</v>
+        <v>4600</v>
       </c>
       <c r="BE7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="BF7">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="BG7">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="BH7" t="b">
         <v>1</v>
       </c>
       <c r="BI7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="BJ7">
         <v>2</v>
@@ -3570,7 +3585,7 @@
         <v>9</v>
       </c>
       <c r="BL7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="BM7">
         <v>0</v>
@@ -3582,17 +3597,17 @@
         <v>1</v>
       </c>
       <c r="BS7" t="s">
+        <v>186</v>
+      </c>
+      <c r="BT7">
+        <v>2</v>
+      </c>
+      <c r="BU7">
+        <v>9</v>
+      </c>
+      <c r="BV7" t="s">
         <v>181</v>
       </c>
-      <c r="BT7">
-        <v>2</v>
-      </c>
-      <c r="BU7">
-        <v>9</v>
-      </c>
-      <c r="BV7" t="s">
-        <v>177</v>
-      </c>
       <c r="BW7">
         <v>0</v>
       </c>
@@ -3603,7 +3618,7 @@
         <v>1</v>
       </c>
       <c r="CC7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="CD7">
         <v>2</v>
@@ -3612,7 +3627,7 @@
         <v>9</v>
       </c>
       <c r="CF7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CG7">
         <v>0</v>
@@ -3624,7 +3639,7 @@
         <v>1</v>
       </c>
       <c r="CL7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CM7">
         <v>0</v>
@@ -3636,7 +3651,7 @@
         <v>1</v>
       </c>
       <c r="DJ7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="DK7">
         <v>0.05</v>
@@ -3651,10 +3666,10 @@
         <v>8.5</v>
       </c>
       <c r="DO7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="DP7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="DQ7">
         <v>1</v>
@@ -3663,7 +3678,7 @@
         <v>1</v>
       </c>
       <c r="DS7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="DT7">
         <v>3600</v>
@@ -3684,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="DZ7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="EA7">
         <v>0</v>
@@ -3693,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="EC7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="EH7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="EI7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="EJ7">
         <v>96</v>
       </c>
       <c r="EK7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="EL7">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="EM7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="EN7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="EO7">
         <v>0</v>
@@ -3734,10 +3749,10 @@
         <v>152</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G8">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -3746,7 +3761,7 @@
         <v>2.6</v>
       </c>
       <c r="J8">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -3761,10 +3776,10 @@
         <v>1</v>
       </c>
       <c r="O8">
-        <v>2455000</v>
+        <v>5527000</v>
       </c>
       <c r="P8" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="Q8" t="s">
         <v>162</v>
@@ -3812,10 +3827,10 @@
         <v>1</v>
       </c>
       <c r="AH8">
-        <v>19500000</v>
+        <v>5500000</v>
       </c>
       <c r="AI8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AJ8">
         <v>55</v>
@@ -3845,10 +3860,10 @@
         <v>1</v>
       </c>
       <c r="AS8">
-        <v>2800000</v>
+        <v>1800000</v>
       </c>
       <c r="AT8" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="AU8">
         <v>55</v>
@@ -3878,10 +3893,10 @@
         <v>1</v>
       </c>
       <c r="BD8">
-        <v>3500</v>
+        <v>7300</v>
       </c>
       <c r="BE8" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="BF8">
         <v>0</v>
@@ -3893,7 +3908,7 @@
         <v>1</v>
       </c>
       <c r="BI8" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="BJ8">
         <v>2</v>
@@ -3902,7 +3917,7 @@
         <v>9</v>
       </c>
       <c r="BL8" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="BM8">
         <v>1</v>
@@ -3914,26 +3929,26 @@
         <v>1</v>
       </c>
       <c r="BP8">
-        <v>1400</v>
+        <v>4100</v>
       </c>
       <c r="BQ8" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="BR8" t="b">
         <v>1</v>
       </c>
       <c r="BS8" t="s">
+        <v>186</v>
+      </c>
+      <c r="BT8">
+        <v>2</v>
+      </c>
+      <c r="BU8">
+        <v>9</v>
+      </c>
+      <c r="BV8" t="s">
         <v>181</v>
       </c>
-      <c r="BT8">
-        <v>2</v>
-      </c>
-      <c r="BU8">
-        <v>9</v>
-      </c>
-      <c r="BV8" t="s">
-        <v>177</v>
-      </c>
       <c r="BW8">
         <v>0</v>
       </c>
@@ -3944,7 +3959,7 @@
         <v>1</v>
       </c>
       <c r="CC8" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="CD8">
         <v>2</v>
@@ -3953,7 +3968,7 @@
         <v>9</v>
       </c>
       <c r="CF8" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CG8">
         <v>0</v>
@@ -3965,19 +3980,49 @@
         <v>1</v>
       </c>
       <c r="CL8" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CM8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO8" t="b">
         <v>1</v>
       </c>
+      <c r="CP8" t="s">
+        <v>191</v>
+      </c>
+      <c r="CQ8">
+        <v>75000</v>
+      </c>
+      <c r="CR8">
+        <v>20000</v>
+      </c>
+      <c r="CS8">
+        <v>7200</v>
+      </c>
+      <c r="CT8">
+        <v>11000</v>
+      </c>
+      <c r="CU8">
+        <v>100000</v>
+      </c>
+      <c r="CV8">
+        <v>0.9</v>
+      </c>
+      <c r="CW8">
+        <v>0.8</v>
+      </c>
+      <c r="CX8" t="b">
+        <v>0</v>
+      </c>
+      <c r="CY8" t="b">
+        <v>0</v>
+      </c>
       <c r="DJ8" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="DK8">
         <v>0.05</v>
@@ -3992,10 +4037,10 @@
         <v>8.5</v>
       </c>
       <c r="DO8" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="DP8" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="DQ8">
         <v>1</v>
@@ -4004,13 +4049,13 @@
         <v>1</v>
       </c>
       <c r="DS8" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="DT8">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="DU8">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="DV8">
         <v>0.95</v>
@@ -4025,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="DZ8" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="EA8">
         <v>0</v>
@@ -4034,25 +4079,25 @@
         <v>0</v>
       </c>
       <c r="EC8" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="EH8" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="EI8" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="EJ8">
         <v>96</v>
       </c>
       <c r="EK8" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="EL8">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="EM8" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="EN8">
         <v>10</v>
@@ -4102,10 +4147,10 @@
         <v>1</v>
       </c>
       <c r="O9">
-        <v>4536000</v>
+        <v>3648000</v>
       </c>
       <c r="P9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q9" t="s">
         <v>162</v>
@@ -4156,10 +4201,10 @@
         <v>19500000</v>
       </c>
       <c r="AI9" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AJ9">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="AK9" t="s">
         <v>162</v>
@@ -4189,7 +4234,7 @@
         <v>2400000</v>
       </c>
       <c r="AT9" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="AU9">
         <v>55</v>
@@ -4219,22 +4264,22 @@
         <v>1</v>
       </c>
       <c r="BD9">
-        <v>6200</v>
+        <v>5600</v>
       </c>
       <c r="BE9" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="BF9">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="BG9">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="BH9" t="b">
         <v>1</v>
       </c>
       <c r="BI9" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="BJ9">
         <v>2</v>
@@ -4243,7 +4288,7 @@
         <v>9</v>
       </c>
       <c r="BL9" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="BM9">
         <v>1</v>
@@ -4255,38 +4300,38 @@
         <v>1</v>
       </c>
       <c r="BP9">
-        <v>3300</v>
+        <v>2500</v>
       </c>
       <c r="BQ9" t="s">
+        <v>185</v>
+      </c>
+      <c r="BR9" t="b">
+        <v>1</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>186</v>
+      </c>
+      <c r="BT9">
+        <v>2</v>
+      </c>
+      <c r="BU9">
+        <v>9</v>
+      </c>
+      <c r="BV9" t="s">
+        <v>181</v>
+      </c>
+      <c r="BW9">
+        <v>0</v>
+      </c>
+      <c r="BX9">
+        <v>0</v>
+      </c>
+      <c r="BY9" t="b">
+        <v>1</v>
+      </c>
+      <c r="CC9" t="s">
         <v>180</v>
       </c>
-      <c r="BR9" t="b">
-        <v>1</v>
-      </c>
-      <c r="BS9" t="s">
-        <v>181</v>
-      </c>
-      <c r="BT9">
-        <v>2</v>
-      </c>
-      <c r="BU9">
-        <v>9</v>
-      </c>
-      <c r="BV9" t="s">
-        <v>177</v>
-      </c>
-      <c r="BW9">
-        <v>0</v>
-      </c>
-      <c r="BX9">
-        <v>0</v>
-      </c>
-      <c r="BY9" t="b">
-        <v>1</v>
-      </c>
-      <c r="CC9" t="s">
-        <v>176</v>
-      </c>
       <c r="CD9">
         <v>2</v>
       </c>
@@ -4294,7 +4339,7 @@
         <v>9</v>
       </c>
       <c r="CF9" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CG9">
         <v>0</v>
@@ -4306,49 +4351,19 @@
         <v>1</v>
       </c>
       <c r="CL9" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CM9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO9" t="b">
         <v>1</v>
       </c>
-      <c r="CP9" t="s">
-        <v>186</v>
-      </c>
-      <c r="CQ9">
-        <v>75000</v>
-      </c>
-      <c r="CR9">
-        <v>20000</v>
-      </c>
-      <c r="CS9">
-        <v>7200</v>
-      </c>
-      <c r="CT9">
-        <v>11000</v>
-      </c>
-      <c r="CU9">
-        <v>100000</v>
-      </c>
-      <c r="CV9">
-        <v>0.9</v>
-      </c>
-      <c r="CW9">
-        <v>0.8</v>
-      </c>
-      <c r="CX9" t="b">
-        <v>0</v>
-      </c>
-      <c r="CY9" t="b">
-        <v>0</v>
-      </c>
       <c r="DJ9" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="DK9">
         <v>0.05</v>
@@ -4363,10 +4378,10 @@
         <v>8.5</v>
       </c>
       <c r="DO9" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="DP9" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="DQ9">
         <v>1</v>
@@ -4375,13 +4390,13 @@
         <v>1</v>
       </c>
       <c r="DS9" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="DT9">
-        <v>4500</v>
+        <v>3600</v>
       </c>
       <c r="DU9">
-        <v>4500</v>
+        <v>3600</v>
       </c>
       <c r="DV9">
         <v>0.95</v>
@@ -4396,7 +4411,7 @@
         <v>0</v>
       </c>
       <c r="DZ9" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="EA9">
         <v>0</v>
@@ -4405,28 +4420,28 @@
         <v>0</v>
       </c>
       <c r="EC9" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="EH9" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="EI9" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="EJ9">
         <v>96</v>
       </c>
       <c r="EK9" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="EL9">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="EM9" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="EN9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="EO9">
         <v>0</v>
@@ -4446,10 +4461,10 @@
         <v>154</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -4458,7 +4473,7 @@
         <v>2.6</v>
       </c>
       <c r="J10">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -4473,10 +4488,10 @@
         <v>1</v>
       </c>
       <c r="O10">
-        <v>4536000</v>
+        <v>3296000</v>
       </c>
       <c r="P10" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q10" t="s">
         <v>162</v>
@@ -4524,10 +4539,10 @@
         <v>1</v>
       </c>
       <c r="AH10">
-        <v>5500000</v>
+        <v>19500000</v>
       </c>
       <c r="AI10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AJ10">
         <v>55</v>
@@ -4557,10 +4572,10 @@
         <v>1</v>
       </c>
       <c r="AS10">
-        <v>2100000</v>
+        <v>3200000</v>
       </c>
       <c r="AT10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AU10">
         <v>55</v>
@@ -4590,22 +4605,22 @@
         <v>1</v>
       </c>
       <c r="BD10">
-        <v>5800</v>
+        <v>4000</v>
       </c>
       <c r="BE10" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="BF10">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="BG10">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="BH10" t="b">
         <v>1</v>
       </c>
       <c r="BI10" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="BJ10">
         <v>2</v>
@@ -4614,38 +4629,29 @@
         <v>9</v>
       </c>
       <c r="BL10" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="BM10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO10" t="b">
         <v>1</v>
       </c>
-      <c r="BP10">
-        <v>2400</v>
-      </c>
-      <c r="BQ10" t="s">
-        <v>179</v>
-      </c>
-      <c r="BR10" t="b">
-        <v>1</v>
-      </c>
       <c r="BS10" t="s">
+        <v>186</v>
+      </c>
+      <c r="BT10">
+        <v>2</v>
+      </c>
+      <c r="BU10">
+        <v>9</v>
+      </c>
+      <c r="BV10" t="s">
         <v>181</v>
       </c>
-      <c r="BT10">
-        <v>2</v>
-      </c>
-      <c r="BU10">
-        <v>9</v>
-      </c>
-      <c r="BV10" t="s">
-        <v>177</v>
-      </c>
       <c r="BW10">
         <v>0</v>
       </c>
@@ -4656,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="CC10" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="CD10">
         <v>2</v>
@@ -4665,7 +4671,7 @@
         <v>9</v>
       </c>
       <c r="CF10" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CG10">
         <v>0</v>
@@ -4677,19 +4683,49 @@
         <v>1</v>
       </c>
       <c r="CL10" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CM10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO10" t="b">
         <v>1</v>
       </c>
+      <c r="CP10" t="s">
+        <v>189</v>
+      </c>
+      <c r="CQ10">
+        <v>50000</v>
+      </c>
+      <c r="CR10">
+        <v>15000</v>
+      </c>
+      <c r="CS10">
+        <v>7200</v>
+      </c>
+      <c r="CT10">
+        <v>7200</v>
+      </c>
+      <c r="CU10">
+        <v>50000</v>
+      </c>
+      <c r="CV10">
+        <v>0.9</v>
+      </c>
+      <c r="CW10">
+        <v>0.8</v>
+      </c>
+      <c r="CX10" t="b">
+        <v>0</v>
+      </c>
+      <c r="CY10" t="b">
+        <v>0</v>
+      </c>
       <c r="DJ10" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="DK10">
         <v>0.05</v>
@@ -4704,10 +4740,10 @@
         <v>8.5</v>
       </c>
       <c r="DO10" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="DP10" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="DQ10">
         <v>1</v>
@@ -4716,13 +4752,13 @@
         <v>1</v>
       </c>
       <c r="DS10" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="DT10">
-        <v>4500</v>
+        <v>3300</v>
       </c>
       <c r="DU10">
-        <v>4500</v>
+        <v>3300</v>
       </c>
       <c r="DV10">
         <v>0.95</v>
@@ -4737,7 +4773,7 @@
         <v>0</v>
       </c>
       <c r="DZ10" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="EA10">
         <v>0</v>
@@ -4746,28 +4782,28 @@
         <v>0</v>
       </c>
       <c r="EC10" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="EH10" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="EI10" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="EJ10">
         <v>96</v>
       </c>
       <c r="EK10" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="EL10">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="EM10" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="EN10">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="EO10">
         <v>0</v>
@@ -4787,10 +4823,10 @@
         <v>155</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -4799,7 +4835,7 @@
         <v>2.6</v>
       </c>
       <c r="J11">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -4814,10 +4850,10 @@
         <v>1</v>
       </c>
       <c r="O11">
-        <v>3648000</v>
+        <v>3296000</v>
       </c>
       <c r="P11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q11" t="s">
         <v>162</v>
@@ -4865,13 +4901,13 @@
         <v>1</v>
       </c>
       <c r="AH11">
-        <v>5500000</v>
+        <v>19500000</v>
       </c>
       <c r="AI11" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AJ11">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AK11" t="s">
         <v>162</v>
@@ -4898,10 +4934,10 @@
         <v>1</v>
       </c>
       <c r="AS11">
-        <v>2100000</v>
+        <v>2400000</v>
       </c>
       <c r="AT11" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="AU11">
         <v>55</v>
@@ -4931,10 +4967,10 @@
         <v>1</v>
       </c>
       <c r="BD11">
-        <v>6300</v>
+        <v>5000</v>
       </c>
       <c r="BE11" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="BF11">
         <v>0</v>
@@ -4946,7 +4982,7 @@
         <v>1</v>
       </c>
       <c r="BI11" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="BJ11">
         <v>2</v>
@@ -4955,7 +4991,7 @@
         <v>9</v>
       </c>
       <c r="BL11" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="BM11">
         <v>0</v>
@@ -4967,17 +5003,17 @@
         <v>1</v>
       </c>
       <c r="BS11" t="s">
+        <v>186</v>
+      </c>
+      <c r="BT11">
+        <v>2</v>
+      </c>
+      <c r="BU11">
+        <v>9</v>
+      </c>
+      <c r="BV11" t="s">
         <v>181</v>
       </c>
-      <c r="BT11">
-        <v>2</v>
-      </c>
-      <c r="BU11">
-        <v>9</v>
-      </c>
-      <c r="BV11" t="s">
-        <v>177</v>
-      </c>
       <c r="BW11">
         <v>0</v>
       </c>
@@ -4988,7 +5024,7 @@
         <v>1</v>
       </c>
       <c r="CC11" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="CD11">
         <v>2</v>
@@ -4997,7 +5033,7 @@
         <v>9</v>
       </c>
       <c r="CF11" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CG11">
         <v>0</v>
@@ -5009,49 +5045,19 @@
         <v>1</v>
       </c>
       <c r="CL11" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CM11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO11" t="b">
         <v>1</v>
       </c>
-      <c r="CP11" t="s">
-        <v>187</v>
-      </c>
-      <c r="CQ11">
-        <v>75000</v>
-      </c>
-      <c r="CR11">
-        <v>20000</v>
-      </c>
-      <c r="CS11">
-        <v>7200</v>
-      </c>
-      <c r="CT11">
-        <v>11000</v>
-      </c>
-      <c r="CU11">
-        <v>100000</v>
-      </c>
-      <c r="CV11">
-        <v>0.9</v>
-      </c>
-      <c r="CW11">
-        <v>0.8</v>
-      </c>
-      <c r="CX11" t="b">
-        <v>0</v>
-      </c>
-      <c r="CY11" t="b">
-        <v>0</v>
-      </c>
       <c r="DJ11" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="DK11">
         <v>0.05</v>
@@ -5066,10 +5072,10 @@
         <v>8.5</v>
       </c>
       <c r="DO11" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="DP11" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="DQ11">
         <v>1</v>
@@ -5078,13 +5084,13 @@
         <v>1</v>
       </c>
       <c r="DS11" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="DT11">
-        <v>3600</v>
+        <v>3300</v>
       </c>
       <c r="DU11">
-        <v>3600</v>
+        <v>3300</v>
       </c>
       <c r="DV11">
         <v>0.95</v>
@@ -5099,7 +5105,7 @@
         <v>0</v>
       </c>
       <c r="DZ11" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="EA11">
         <v>0</v>
@@ -5108,28 +5114,28 @@
         <v>0</v>
       </c>
       <c r="EC11" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="EH11" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="EI11" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="EJ11">
         <v>96</v>
       </c>
       <c r="EK11" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="EL11">
         <v>36</v>
       </c>
       <c r="EM11" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="EN11">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="EO11">
         <v>0</v>
@@ -5168,13 +5174,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
@@ -5608,22 +5614,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J2">
-        <v>420</v>
+        <v>800</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -5632,7 +5638,7 @@
         <v>2.6</v>
       </c>
       <c r="M2">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -5647,7 +5653,7 @@
         <v>1</v>
       </c>
       <c r="R2">
-        <v>11635000</v>
+        <v>15464000</v>
       </c>
       <c r="T2" t="s">
         <v>162</v>
@@ -5692,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="AK2">
-        <v>23100000</v>
+        <v>120000000</v>
       </c>
       <c r="AN2" t="s">
         <v>162</v>
@@ -5719,7 +5725,7 @@
         <v>1</v>
       </c>
       <c r="AV2">
-        <v>12600</v>
+        <v>22000</v>
       </c>
       <c r="AY2" t="s">
         <v>162</v>
@@ -5746,10 +5752,10 @@
         <v>1</v>
       </c>
       <c r="BG2">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="BH2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="BI2">
         <v>0</v>
@@ -5761,7 +5767,7 @@
         <v>1</v>
       </c>
       <c r="BL2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="BM2">
         <v>2</v>
@@ -5770,59 +5776,50 @@
         <v>9</v>
       </c>
       <c r="BO2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="BP2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR2" t="b">
         <v>1</v>
       </c>
-      <c r="BS2">
-        <v>8400</v>
-      </c>
-      <c r="BT2" t="s">
+      <c r="BV2" t="s">
+        <v>186</v>
+      </c>
+      <c r="BW2">
+        <v>2</v>
+      </c>
+      <c r="BX2">
+        <v>9</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>181</v>
+      </c>
+      <c r="BZ2">
+        <v>1</v>
+      </c>
+      <c r="CA2">
+        <v>1</v>
+      </c>
+      <c r="CB2" t="b">
+        <v>1</v>
+      </c>
+      <c r="CC2">
+        <v>3700</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>229</v>
+      </c>
+      <c r="CE2" t="b">
+        <v>0</v>
+      </c>
+      <c r="CF2" t="s">
         <v>180</v>
       </c>
-      <c r="BU2" t="b">
-        <v>1</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>181</v>
-      </c>
-      <c r="BW2">
-        <v>2</v>
-      </c>
-      <c r="BX2">
-        <v>9</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>177</v>
-      </c>
-      <c r="BZ2">
-        <v>1</v>
-      </c>
-      <c r="CA2">
-        <v>1</v>
-      </c>
-      <c r="CB2" t="b">
-        <v>1</v>
-      </c>
-      <c r="CC2">
-        <v>1900</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>228</v>
-      </c>
-      <c r="CE2" t="b">
-        <v>0</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>176</v>
-      </c>
       <c r="CG2">
         <v>2</v>
       </c>
@@ -5830,7 +5827,7 @@
         <v>9</v>
       </c>
       <c r="CI2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CJ2">
         <v>0</v>
@@ -5842,7 +5839,7 @@
         <v>1</v>
       </c>
       <c r="CO2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CP2">
         <v>0</v>
@@ -5854,10 +5851,10 @@
         <v>1</v>
       </c>
       <c r="DR2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="DS2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="DT2">
         <v>1</v>
@@ -5869,10 +5866,10 @@
         <v>1</v>
       </c>
       <c r="DW2">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="DX2">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="DY2">
         <v>0.95</v>
@@ -5887,7 +5884,7 @@
         <v>0</v>
       </c>
       <c r="EC2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="ED2">
         <v>1</v>
@@ -5899,10 +5896,10 @@
         <v>1</v>
       </c>
       <c r="EG2">
-        <v>12000</v>
+        <v>60000</v>
       </c>
       <c r="EH2">
-        <v>23000</v>
+        <v>120000</v>
       </c>
       <c r="EI2">
         <v>0.95</v>
@@ -5911,25 +5908,25 @@
         <v>0.1</v>
       </c>
       <c r="EK2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="EL2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="EM2">
         <v>96</v>
       </c>
       <c r="EN2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="EO2">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="EP2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="EQ2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="ER2">
         <v>0</v>
@@ -5946,22 +5943,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F3" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J3">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -5970,7 +5967,7 @@
         <v>2.6</v>
       </c>
       <c r="M3">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -5985,10 +5982,10 @@
         <v>1</v>
       </c>
       <c r="R3">
-        <v>2262000</v>
+        <v>2455000</v>
       </c>
       <c r="S3" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="T3" t="s">
         <v>162</v>
@@ -6033,10 +6030,10 @@
         <v>1</v>
       </c>
       <c r="AK3">
-        <v>3850000</v>
+        <v>15000000</v>
       </c>
       <c r="AL3" t="s">
-        <v>164</v>
+        <v>224</v>
       </c>
       <c r="AM3">
         <v>55</v>
@@ -6069,7 +6066,7 @@
         <v>2400</v>
       </c>
       <c r="AW3" t="s">
-        <v>223</v>
+        <v>178</v>
       </c>
       <c r="AX3">
         <v>55</v>
@@ -6099,7 +6096,7 @@
         <v>1</v>
       </c>
       <c r="BL3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="BM3">
         <v>2</v>
@@ -6108,7 +6105,7 @@
         <v>9</v>
       </c>
       <c r="BO3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="BP3">
         <v>0</v>
@@ -6120,17 +6117,17 @@
         <v>1</v>
       </c>
       <c r="BV3" t="s">
+        <v>186</v>
+      </c>
+      <c r="BW3">
+        <v>2</v>
+      </c>
+      <c r="BX3">
+        <v>9</v>
+      </c>
+      <c r="BY3" t="s">
         <v>181</v>
       </c>
-      <c r="BW3">
-        <v>2</v>
-      </c>
-      <c r="BX3">
-        <v>9</v>
-      </c>
-      <c r="BY3" t="s">
-        <v>177</v>
-      </c>
       <c r="BZ3">
         <v>0</v>
       </c>
@@ -6141,7 +6138,7 @@
         <v>1</v>
       </c>
       <c r="CF3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="CG3">
         <v>2</v>
@@ -6150,7 +6147,7 @@
         <v>9</v>
       </c>
       <c r="CI3" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CJ3">
         <v>0</v>
@@ -6162,7 +6159,7 @@
         <v>1</v>
       </c>
       <c r="CO3" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CP3">
         <v>0</v>
@@ -6174,7 +6171,7 @@
         <v>1</v>
       </c>
       <c r="DM3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="DN3">
         <v>0.05</v>
@@ -6189,10 +6186,10 @@
         <v>8</v>
       </c>
       <c r="DR3" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="DS3" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="DT3">
         <v>0</v>
@@ -6204,7 +6201,7 @@
         <v>1</v>
       </c>
       <c r="EC3" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="ED3">
         <v>0</v>
@@ -6216,25 +6213,25 @@
         <v>1</v>
       </c>
       <c r="EK3" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="EL3" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="EM3">
         <v>96</v>
       </c>
       <c r="EN3" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="EO3">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="EP3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="EQ3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="ER3">
         <v>0</v>
@@ -6251,22 +6248,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F4" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J4">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -6275,7 +6272,7 @@
         <v>2.6</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -6290,10 +6287,10 @@
         <v>1</v>
       </c>
       <c r="R4">
-        <v>1720000</v>
+        <v>2687000</v>
       </c>
       <c r="S4" t="s">
-        <v>214</v>
+        <v>156</v>
       </c>
       <c r="T4" t="s">
         <v>162</v>
@@ -6338,10 +6335,10 @@
         <v>1</v>
       </c>
       <c r="AK4">
-        <v>3850000</v>
+        <v>15000000</v>
       </c>
       <c r="AL4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AM4">
         <v>55</v>
@@ -6371,10 +6368,10 @@
         <v>1</v>
       </c>
       <c r="AV4">
-        <v>2100</v>
+        <v>2800</v>
       </c>
       <c r="AW4" t="s">
-        <v>223</v>
+        <v>173</v>
       </c>
       <c r="AX4">
         <v>55</v>
@@ -6404,7 +6401,7 @@
         <v>1</v>
       </c>
       <c r="BL4" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="BM4">
         <v>2</v>
@@ -6413,7 +6410,7 @@
         <v>9</v>
       </c>
       <c r="BO4" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="BP4">
         <v>0</v>
@@ -6425,17 +6422,17 @@
         <v>1</v>
       </c>
       <c r="BV4" t="s">
+        <v>186</v>
+      </c>
+      <c r="BW4">
+        <v>2</v>
+      </c>
+      <c r="BX4">
+        <v>9</v>
+      </c>
+      <c r="BY4" t="s">
         <v>181</v>
       </c>
-      <c r="BW4">
-        <v>2</v>
-      </c>
-      <c r="BX4">
-        <v>9</v>
-      </c>
-      <c r="BY4" t="s">
-        <v>177</v>
-      </c>
       <c r="BZ4">
         <v>0</v>
       </c>
@@ -6446,7 +6443,7 @@
         <v>1</v>
       </c>
       <c r="CF4" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="CG4">
         <v>2</v>
@@ -6455,7 +6452,7 @@
         <v>9</v>
       </c>
       <c r="CI4" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CJ4">
         <v>0</v>
@@ -6467,49 +6464,19 @@
         <v>1</v>
       </c>
       <c r="CO4" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CP4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR4" t="b">
         <v>1</v>
       </c>
-      <c r="CS4" t="s">
-        <v>184</v>
-      </c>
-      <c r="CT4">
-        <v>50000</v>
-      </c>
-      <c r="CU4">
-        <v>15000</v>
-      </c>
-      <c r="CV4">
-        <v>7200</v>
-      </c>
-      <c r="CW4">
-        <v>7200</v>
-      </c>
-      <c r="CX4">
-        <v>50000</v>
-      </c>
-      <c r="CY4">
-        <v>0.9</v>
-      </c>
-      <c r="CZ4">
-        <v>0.8</v>
-      </c>
-      <c r="DA4" t="b">
-        <v>0</v>
-      </c>
-      <c r="DB4" t="b">
-        <v>0</v>
-      </c>
       <c r="DM4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="DN4">
         <v>0.05</v>
@@ -6524,10 +6491,10 @@
         <v>8</v>
       </c>
       <c r="DR4" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="DS4" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="DT4">
         <v>0</v>
@@ -6539,7 +6506,7 @@
         <v>1</v>
       </c>
       <c r="EC4" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="ED4">
         <v>0</v>
@@ -6551,22 +6518,22 @@
         <v>1</v>
       </c>
       <c r="EK4" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="EL4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="EM4">
         <v>96</v>
       </c>
       <c r="EN4" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="EO4">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="EP4" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="EQ4">
         <v>0</v>
@@ -6586,22 +6553,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F5" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J5">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -6610,7 +6577,7 @@
         <v>2.6</v>
       </c>
       <c r="M5">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -6625,10 +6592,10 @@
         <v>1</v>
       </c>
       <c r="R5">
-        <v>2262000</v>
+        <v>1720000</v>
       </c>
       <c r="S5" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="T5" t="s">
         <v>162</v>
@@ -6673,13 +6640,13 @@
         <v>1</v>
       </c>
       <c r="AK5">
-        <v>3850000</v>
+        <v>15000000</v>
       </c>
       <c r="AL5" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="AM5">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="AN5" t="s">
         <v>162</v>
@@ -6706,10 +6673,10 @@
         <v>1</v>
       </c>
       <c r="AV5">
-        <v>2400</v>
+        <v>3200</v>
       </c>
       <c r="AW5" t="s">
-        <v>224</v>
+        <v>177</v>
       </c>
       <c r="AX5">
         <v>55</v>
@@ -6739,7 +6706,7 @@
         <v>1</v>
       </c>
       <c r="BL5" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="BM5">
         <v>2</v>
@@ -6748,7 +6715,7 @@
         <v>9</v>
       </c>
       <c r="BO5" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="BP5">
         <v>0</v>
@@ -6760,17 +6727,17 @@
         <v>1</v>
       </c>
       <c r="BV5" t="s">
+        <v>186</v>
+      </c>
+      <c r="BW5">
+        <v>2</v>
+      </c>
+      <c r="BX5">
+        <v>9</v>
+      </c>
+      <c r="BY5" t="s">
         <v>181</v>
       </c>
-      <c r="BW5">
-        <v>2</v>
-      </c>
-      <c r="BX5">
-        <v>9</v>
-      </c>
-      <c r="BY5" t="s">
-        <v>177</v>
-      </c>
       <c r="BZ5">
         <v>0</v>
       </c>
@@ -6781,7 +6748,7 @@
         <v>1</v>
       </c>
       <c r="CF5" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="CG5">
         <v>2</v>
@@ -6790,7 +6757,7 @@
         <v>9</v>
       </c>
       <c r="CI5" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CJ5">
         <v>0</v>
@@ -6802,7 +6769,7 @@
         <v>1</v>
       </c>
       <c r="CO5" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CP5">
         <v>0</v>
@@ -6829,10 +6796,10 @@
         <v>8</v>
       </c>
       <c r="DR5" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="DS5" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="DT5">
         <v>0</v>
@@ -6844,7 +6811,7 @@
         <v>1</v>
       </c>
       <c r="EC5" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="ED5">
         <v>0</v>
@@ -6856,22 +6823,22 @@
         <v>1</v>
       </c>
       <c r="EK5" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="EL5" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="EM5">
         <v>96</v>
       </c>
       <c r="EN5" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="EO5">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="EP5" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="EQ5">
         <v>0</v>
@@ -6891,22 +6858,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F6" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J6">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -6915,7 +6882,7 @@
         <v>2.6</v>
       </c>
       <c r="M6">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -6930,10 +6897,10 @@
         <v>1</v>
       </c>
       <c r="R6">
-        <v>1158000</v>
+        <v>1266000</v>
       </c>
       <c r="S6" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="T6" t="s">
         <v>162</v>
@@ -6978,13 +6945,13 @@
         <v>1</v>
       </c>
       <c r="AK6">
-        <v>3850000</v>
+        <v>15000000</v>
       </c>
       <c r="AL6" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AM6">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="AN6" t="s">
         <v>162</v>
@@ -7011,10 +6978,10 @@
         <v>1</v>
       </c>
       <c r="AV6">
-        <v>1800</v>
+        <v>3200</v>
       </c>
       <c r="AW6" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="AX6">
         <v>55</v>
@@ -7044,7 +7011,7 @@
         <v>1</v>
       </c>
       <c r="BL6" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="BM6">
         <v>2</v>
@@ -7053,7 +7020,7 @@
         <v>9</v>
       </c>
       <c r="BO6" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="BP6">
         <v>0</v>
@@ -7065,17 +7032,17 @@
         <v>1</v>
       </c>
       <c r="BV6" t="s">
+        <v>186</v>
+      </c>
+      <c r="BW6">
+        <v>2</v>
+      </c>
+      <c r="BX6">
+        <v>9</v>
+      </c>
+      <c r="BY6" t="s">
         <v>181</v>
       </c>
-      <c r="BW6">
-        <v>2</v>
-      </c>
-      <c r="BX6">
-        <v>9</v>
-      </c>
-      <c r="BY6" t="s">
-        <v>177</v>
-      </c>
       <c r="BZ6">
         <v>0</v>
       </c>
@@ -7086,7 +7053,7 @@
         <v>1</v>
       </c>
       <c r="CF6" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="CG6">
         <v>2</v>
@@ -7095,7 +7062,7 @@
         <v>9</v>
       </c>
       <c r="CI6" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CJ6">
         <v>0</v>
@@ -7107,46 +7074,16 @@
         <v>1</v>
       </c>
       <c r="CO6" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CP6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR6" t="b">
         <v>1</v>
-      </c>
-      <c r="CS6" t="s">
-        <v>229</v>
-      </c>
-      <c r="CT6">
-        <v>75000</v>
-      </c>
-      <c r="CU6">
-        <v>20000</v>
-      </c>
-      <c r="CV6">
-        <v>7200</v>
-      </c>
-      <c r="CW6">
-        <v>11000</v>
-      </c>
-      <c r="CX6">
-        <v>100000</v>
-      </c>
-      <c r="CY6">
-        <v>0.9</v>
-      </c>
-      <c r="CZ6">
-        <v>0.8</v>
-      </c>
-      <c r="DA6" t="b">
-        <v>0</v>
-      </c>
-      <c r="DB6" t="b">
-        <v>0</v>
       </c>
       <c r="DM6" t="s">
         <v>234</v>
@@ -7164,10 +7101,10 @@
         <v>8</v>
       </c>
       <c r="DR6" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="DS6" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="DT6">
         <v>0</v>
@@ -7179,7 +7116,7 @@
         <v>1</v>
       </c>
       <c r="EC6" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="ED6">
         <v>0</v>
@@ -7191,25 +7128,25 @@
         <v>1</v>
       </c>
       <c r="EK6" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="EL6" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="EM6">
         <v>96</v>
       </c>
       <c r="EN6" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="EO6">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="EP6" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="EQ6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="ER6">
         <v>0</v>
@@ -7226,22 +7163,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J7">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -7250,7 +7187,7 @@
         <v>2.6</v>
       </c>
       <c r="M7">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -7265,10 +7202,10 @@
         <v>1</v>
       </c>
       <c r="R7">
-        <v>2687000</v>
+        <v>1266000</v>
       </c>
       <c r="S7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="T7" t="s">
         <v>162</v>
@@ -7313,13 +7250,13 @@
         <v>1</v>
       </c>
       <c r="AK7">
-        <v>3850000</v>
+        <v>15000000</v>
       </c>
       <c r="AL7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AM7">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AN7" t="s">
         <v>162</v>
@@ -7346,10 +7283,10 @@
         <v>1</v>
       </c>
       <c r="AV7">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="AW7" t="s">
-        <v>223</v>
+        <v>173</v>
       </c>
       <c r="AX7">
         <v>55</v>
@@ -7379,7 +7316,7 @@
         <v>1</v>
       </c>
       <c r="BL7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="BM7">
         <v>2</v>
@@ -7388,7 +7325,7 @@
         <v>9</v>
       </c>
       <c r="BO7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="BP7">
         <v>0</v>
@@ -7400,17 +7337,17 @@
         <v>1</v>
       </c>
       <c r="BV7" t="s">
+        <v>186</v>
+      </c>
+      <c r="BW7">
+        <v>2</v>
+      </c>
+      <c r="BX7">
+        <v>9</v>
+      </c>
+      <c r="BY7" t="s">
         <v>181</v>
       </c>
-      <c r="BW7">
-        <v>2</v>
-      </c>
-      <c r="BX7">
-        <v>9</v>
-      </c>
-      <c r="BY7" t="s">
-        <v>177</v>
-      </c>
       <c r="BZ7">
         <v>0</v>
       </c>
@@ -7421,7 +7358,7 @@
         <v>1</v>
       </c>
       <c r="CF7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="CG7">
         <v>2</v>
@@ -7430,7 +7367,7 @@
         <v>9</v>
       </c>
       <c r="CI7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CJ7">
         <v>0</v>
@@ -7442,16 +7379,76 @@
         <v>1</v>
       </c>
       <c r="CO7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CP7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CR7" t="b">
         <v>1</v>
+      </c>
+      <c r="CS7" t="s">
+        <v>230</v>
+      </c>
+      <c r="CT7">
+        <v>50000</v>
+      </c>
+      <c r="CU7">
+        <v>15000</v>
+      </c>
+      <c r="CV7">
+        <v>7200</v>
+      </c>
+      <c r="CW7">
+        <v>7200</v>
+      </c>
+      <c r="CX7">
+        <v>50000</v>
+      </c>
+      <c r="CY7">
+        <v>0.9</v>
+      </c>
+      <c r="CZ7">
+        <v>0.8</v>
+      </c>
+      <c r="DA7" t="b">
+        <v>0</v>
+      </c>
+      <c r="DB7" t="b">
+        <v>0</v>
+      </c>
+      <c r="DC7" t="s">
+        <v>191</v>
+      </c>
+      <c r="DD7">
+        <v>100000</v>
+      </c>
+      <c r="DE7">
+        <v>25000</v>
+      </c>
+      <c r="DF7">
+        <v>11000</v>
+      </c>
+      <c r="DG7">
+        <v>22000</v>
+      </c>
+      <c r="DH7">
+        <v>200000</v>
+      </c>
+      <c r="DI7">
+        <v>0.9</v>
+      </c>
+      <c r="DJ7">
+        <v>0.8</v>
+      </c>
+      <c r="DK7" t="b">
+        <v>0</v>
+      </c>
+      <c r="DL7" t="b">
+        <v>0</v>
       </c>
       <c r="DM7" t="s">
         <v>235</v>
@@ -7469,10 +7466,10 @@
         <v>8</v>
       </c>
       <c r="DR7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="DS7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="DT7">
         <v>0</v>
@@ -7484,7 +7481,7 @@
         <v>1</v>
       </c>
       <c r="EC7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="ED7">
         <v>0</v>
@@ -7496,25 +7493,25 @@
         <v>1</v>
       </c>
       <c r="EK7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="EL7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="EM7">
         <v>96</v>
       </c>
       <c r="EN7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="EO7">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="EP7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="EQ7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="ER7">
         <v>0</v>
@@ -7531,22 +7528,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F8" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J8">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -7555,7 +7552,7 @@
         <v>2.6</v>
       </c>
       <c r="M8">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -7573,7 +7570,7 @@
         <v>1546000</v>
       </c>
       <c r="S8" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="T8" t="s">
         <v>162</v>
@@ -7618,13 +7615,13 @@
         <v>1</v>
       </c>
       <c r="AK8">
-        <v>3850000</v>
+        <v>15000000</v>
       </c>
       <c r="AL8" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="AM8">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AN8" t="s">
         <v>162</v>
@@ -7651,10 +7648,10 @@
         <v>1</v>
       </c>
       <c r="AV8">
-        <v>2100</v>
+        <v>2800</v>
       </c>
       <c r="AW8" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="AX8">
         <v>55</v>
@@ -7684,7 +7681,7 @@
         <v>1</v>
       </c>
       <c r="BL8" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="BM8">
         <v>2</v>
@@ -7693,7 +7690,7 @@
         <v>9</v>
       </c>
       <c r="BO8" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="BP8">
         <v>0</v>
@@ -7705,17 +7702,17 @@
         <v>1</v>
       </c>
       <c r="BV8" t="s">
+        <v>186</v>
+      </c>
+      <c r="BW8">
+        <v>2</v>
+      </c>
+      <c r="BX8">
+        <v>9</v>
+      </c>
+      <c r="BY8" t="s">
         <v>181</v>
       </c>
-      <c r="BW8">
-        <v>2</v>
-      </c>
-      <c r="BX8">
-        <v>9</v>
-      </c>
-      <c r="BY8" t="s">
-        <v>177</v>
-      </c>
       <c r="BZ8">
         <v>0</v>
       </c>
@@ -7726,7 +7723,7 @@
         <v>1</v>
       </c>
       <c r="CF8" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="CG8">
         <v>2</v>
@@ -7735,7 +7732,7 @@
         <v>9</v>
       </c>
       <c r="CI8" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CJ8">
         <v>0</v>
@@ -7747,7 +7744,7 @@
         <v>1</v>
       </c>
       <c r="CO8" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CP8">
         <v>0</v>
@@ -7759,7 +7756,7 @@
         <v>1</v>
       </c>
       <c r="DM8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="DN8">
         <v>0.05</v>
@@ -7774,10 +7771,10 @@
         <v>8</v>
       </c>
       <c r="DR8" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="DS8" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="DT8">
         <v>0</v>
@@ -7789,7 +7786,7 @@
         <v>1</v>
       </c>
       <c r="EC8" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="ED8">
         <v>0</v>
@@ -7801,25 +7798,25 @@
         <v>1</v>
       </c>
       <c r="EK8" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="EL8" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="EM8">
         <v>96</v>
       </c>
       <c r="EN8" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="EO8">
         <v>36</v>
       </c>
       <c r="EP8" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="EQ8">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="ER8">
         <v>0</v>
@@ -7836,10 +7833,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F9" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -7851,7 +7848,7 @@
         <v>4</v>
       </c>
       <c r="J9">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -7866,16 +7863,19 @@
         <v>1</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="b">
         <v>1</v>
       </c>
       <c r="R9">
-        <v>14531000</v>
+        <v>2262000</v>
+      </c>
+      <c r="S9" t="s">
+        <v>221</v>
       </c>
       <c r="T9" t="s">
         <v>162</v>
@@ -7911,16 +7911,22 @@
         <v>163</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ9" t="b">
         <v>1</v>
       </c>
       <c r="AK9">
-        <v>120000000</v>
+        <v>15000000</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>225</v>
+      </c>
+      <c r="AM9">
+        <v>55</v>
       </c>
       <c r="AN9" t="s">
         <v>162</v>
@@ -7938,16 +7944,22 @@
         <v>90</v>
       </c>
       <c r="AS9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU9" t="b">
         <v>1</v>
       </c>
       <c r="AV9">
-        <v>22400</v>
+        <v>2400</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>176</v>
+      </c>
+      <c r="AX9">
+        <v>55</v>
       </c>
       <c r="AY9" t="s">
         <v>162</v>
@@ -7965,31 +7977,16 @@
         <v>90</v>
       </c>
       <c r="BD9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF9" t="b">
         <v>1</v>
       </c>
-      <c r="BG9">
-        <v>21000</v>
-      </c>
-      <c r="BH9" t="s">
-        <v>227</v>
-      </c>
-      <c r="BI9">
-        <v>0</v>
-      </c>
-      <c r="BJ9">
-        <v>40</v>
-      </c>
-      <c r="BK9" t="b">
-        <v>1</v>
-      </c>
       <c r="BL9" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="BM9">
         <v>2</v>
@@ -7998,7 +7995,7 @@
         <v>9</v>
       </c>
       <c r="BO9" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="BP9">
         <v>0</v>
@@ -8010,37 +8007,28 @@
         <v>1</v>
       </c>
       <c r="BV9" t="s">
+        <v>186</v>
+      </c>
+      <c r="BW9">
+        <v>2</v>
+      </c>
+      <c r="BX9">
+        <v>9</v>
+      </c>
+      <c r="BY9" t="s">
         <v>181</v>
       </c>
-      <c r="BW9">
-        <v>2</v>
-      </c>
-      <c r="BX9">
-        <v>9</v>
-      </c>
-      <c r="BY9" t="s">
-        <v>177</v>
-      </c>
       <c r="BZ9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB9" t="b">
         <v>1</v>
       </c>
-      <c r="CC9">
-        <v>1600</v>
-      </c>
-      <c r="CD9" t="s">
-        <v>228</v>
-      </c>
-      <c r="CE9" t="b">
-        <v>0</v>
-      </c>
       <c r="CF9" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="CG9">
         <v>2</v>
@@ -8049,7 +8037,7 @@
         <v>9</v>
       </c>
       <c r="CI9" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CJ9">
         <v>0</v>
@@ -8061,91 +8049,106 @@
         <v>1</v>
       </c>
       <c r="CO9" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CP9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR9" t="b">
         <v>1</v>
       </c>
+      <c r="CS9" t="s">
+        <v>231</v>
+      </c>
+      <c r="CT9">
+        <v>75000</v>
+      </c>
+      <c r="CU9">
+        <v>20000</v>
+      </c>
+      <c r="CV9">
+        <v>7200</v>
+      </c>
+      <c r="CW9">
+        <v>11000</v>
+      </c>
+      <c r="CX9">
+        <v>100000</v>
+      </c>
+      <c r="CY9">
+        <v>0.9</v>
+      </c>
+      <c r="CZ9">
+        <v>0.8</v>
+      </c>
+      <c r="DA9" t="b">
+        <v>0</v>
+      </c>
+      <c r="DB9" t="b">
+        <v>0</v>
+      </c>
+      <c r="DM9" t="s">
+        <v>234</v>
+      </c>
+      <c r="DN9">
+        <v>0.05</v>
+      </c>
+      <c r="DO9">
+        <v>0.5</v>
+      </c>
+      <c r="DP9">
+        <v>0.8</v>
+      </c>
+      <c r="DQ9">
+        <v>8</v>
+      </c>
       <c r="DR9" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="DS9" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="DT9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DU9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DV9" t="b">
         <v>1</v>
       </c>
-      <c r="DW9">
-        <v>15000</v>
-      </c>
-      <c r="DX9">
-        <v>15000</v>
-      </c>
-      <c r="DY9">
-        <v>0.95</v>
-      </c>
-      <c r="DZ9">
-        <v>0.1</v>
-      </c>
-      <c r="EA9" t="b">
-        <v>0</v>
-      </c>
-      <c r="EB9" t="b">
-        <v>0</v>
-      </c>
       <c r="EC9" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="ED9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EE9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EF9" t="b">
         <v>1</v>
       </c>
-      <c r="EG9">
-        <v>60000</v>
-      </c>
-      <c r="EH9">
-        <v>120000</v>
-      </c>
-      <c r="EI9">
-        <v>0.95</v>
-      </c>
-      <c r="EJ9">
-        <v>0.1</v>
-      </c>
       <c r="EK9" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="EL9" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="EM9">
         <v>96</v>
       </c>
       <c r="EN9" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="EO9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="EP9" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="EQ9">
         <v>0</v>
@@ -8165,10 +8168,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F10" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
@@ -8204,10 +8207,10 @@
         <v>1</v>
       </c>
       <c r="R10">
-        <v>2455000</v>
+        <v>2262000</v>
       </c>
       <c r="S10" t="s">
-        <v>161</v>
+        <v>221</v>
       </c>
       <c r="T10" t="s">
         <v>162</v>
@@ -8285,10 +8288,10 @@
         <v>1</v>
       </c>
       <c r="AV10">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="AW10" t="s">
-        <v>225</v>
+        <v>176</v>
       </c>
       <c r="AX10">
         <v>55</v>
@@ -8318,7 +8321,7 @@
         <v>1</v>
       </c>
       <c r="BL10" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="BM10">
         <v>2</v>
@@ -8327,7 +8330,7 @@
         <v>9</v>
       </c>
       <c r="BO10" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="BP10">
         <v>0</v>
@@ -8339,17 +8342,17 @@
         <v>1</v>
       </c>
       <c r="BV10" t="s">
+        <v>186</v>
+      </c>
+      <c r="BW10">
+        <v>2</v>
+      </c>
+      <c r="BX10">
+        <v>9</v>
+      </c>
+      <c r="BY10" t="s">
         <v>181</v>
       </c>
-      <c r="BW10">
-        <v>2</v>
-      </c>
-      <c r="BX10">
-        <v>9</v>
-      </c>
-      <c r="BY10" t="s">
-        <v>177</v>
-      </c>
       <c r="BZ10">
         <v>0</v>
       </c>
@@ -8360,7 +8363,7 @@
         <v>1</v>
       </c>
       <c r="CF10" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="CG10">
         <v>2</v>
@@ -8369,7 +8372,7 @@
         <v>9</v>
       </c>
       <c r="CI10" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CJ10">
         <v>0</v>
@@ -8381,7 +8384,7 @@
         <v>1</v>
       </c>
       <c r="CO10" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CP10">
         <v>0</v>
@@ -8393,7 +8396,7 @@
         <v>1</v>
       </c>
       <c r="DM10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="DN10">
         <v>0.05</v>
@@ -8408,10 +8411,10 @@
         <v>8</v>
       </c>
       <c r="DR10" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="DS10" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="DT10">
         <v>0</v>
@@ -8423,7 +8426,7 @@
         <v>1</v>
       </c>
       <c r="EC10" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="ED10">
         <v>0</v>
@@ -8435,25 +8438,25 @@
         <v>1</v>
       </c>
       <c r="EK10" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="EL10" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="EM10">
         <v>96</v>
       </c>
       <c r="EN10" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="EO10">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="EP10" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="EQ10">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="ER10">
         <v>0</v>
@@ -8470,22 +8473,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F11" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J11">
-        <v>100</v>
+        <v>420</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -8494,25 +8497,22 @@
         <v>2.6</v>
       </c>
       <c r="M11">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="N11">
         <v>1</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="b">
         <v>1</v>
       </c>
       <c r="R11">
-        <v>1546000</v>
-      </c>
-      <c r="S11" t="s">
-        <v>217</v>
+        <v>11172000</v>
       </c>
       <c r="T11" t="s">
         <v>162</v>
@@ -8548,22 +8548,16 @@
         <v>163</v>
       </c>
       <c r="AH11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ11" t="b">
         <v>1</v>
       </c>
       <c r="AK11">
-        <v>15000000</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>221</v>
-      </c>
-      <c r="AM11">
-        <v>35</v>
+        <v>23100000</v>
       </c>
       <c r="AN11" t="s">
         <v>162</v>
@@ -8581,22 +8575,16 @@
         <v>90</v>
       </c>
       <c r="AS11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU11" t="b">
         <v>1</v>
       </c>
       <c r="AV11">
-        <v>3200</v>
-      </c>
-      <c r="AW11" t="s">
-        <v>224</v>
-      </c>
-      <c r="AX11">
-        <v>55</v>
+        <v>12600</v>
       </c>
       <c r="AY11" t="s">
         <v>162</v>
@@ -8614,16 +8602,31 @@
         <v>90</v>
       </c>
       <c r="BD11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF11" t="b">
         <v>1</v>
       </c>
+      <c r="BG11">
+        <v>17000</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>228</v>
+      </c>
+      <c r="BI11">
+        <v>0</v>
+      </c>
+      <c r="BJ11">
+        <v>40</v>
+      </c>
+      <c r="BK11" t="b">
+        <v>1</v>
+      </c>
       <c r="BL11" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="BM11">
         <v>2</v>
@@ -8632,40 +8635,58 @@
         <v>9</v>
       </c>
       <c r="BO11" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="BP11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR11" t="b">
         <v>1</v>
       </c>
+      <c r="BS11">
+        <v>6700</v>
+      </c>
+      <c r="BT11" t="s">
+        <v>182</v>
+      </c>
+      <c r="BU11" t="b">
+        <v>1</v>
+      </c>
       <c r="BV11" t="s">
+        <v>186</v>
+      </c>
+      <c r="BW11">
+        <v>2</v>
+      </c>
+      <c r="BX11">
+        <v>9</v>
+      </c>
+      <c r="BY11" t="s">
         <v>181</v>
       </c>
-      <c r="BW11">
-        <v>2</v>
-      </c>
-      <c r="BX11">
-        <v>9</v>
-      </c>
-      <c r="BY11" t="s">
-        <v>177</v>
-      </c>
       <c r="BZ11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB11" t="b">
         <v>1</v>
       </c>
+      <c r="CC11">
+        <v>1200</v>
+      </c>
+      <c r="CD11" t="s">
+        <v>229</v>
+      </c>
+      <c r="CE11" t="b">
+        <v>0</v>
+      </c>
       <c r="CF11" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="CG11">
         <v>2</v>
@@ -8674,7 +8695,7 @@
         <v>9</v>
       </c>
       <c r="CI11" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CJ11">
         <v>0</v>
@@ -8686,106 +8707,91 @@
         <v>1</v>
       </c>
       <c r="CO11" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CP11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR11" t="b">
         <v>1</v>
       </c>
-      <c r="CS11" t="s">
-        <v>229</v>
-      </c>
-      <c r="CT11">
-        <v>50000</v>
-      </c>
-      <c r="CU11">
-        <v>15000</v>
-      </c>
-      <c r="CV11">
-        <v>7200</v>
-      </c>
-      <c r="CW11">
-        <v>7200</v>
-      </c>
-      <c r="CX11">
-        <v>50000</v>
-      </c>
-      <c r="CY11">
-        <v>0.9</v>
-      </c>
-      <c r="CZ11">
-        <v>0.8</v>
-      </c>
-      <c r="DA11" t="b">
-        <v>0</v>
-      </c>
-      <c r="DB11" t="b">
-        <v>0</v>
-      </c>
-      <c r="DM11" t="s">
-        <v>235</v>
-      </c>
-      <c r="DN11">
-        <v>0.05</v>
-      </c>
-      <c r="DO11">
-        <v>0.5</v>
-      </c>
-      <c r="DP11">
-        <v>0.8</v>
-      </c>
-      <c r="DQ11">
-        <v>8</v>
-      </c>
       <c r="DR11" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="DS11" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="DT11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DU11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DV11" t="b">
         <v>1</v>
       </c>
+      <c r="DW11">
+        <v>11000</v>
+      </c>
+      <c r="DX11">
+        <v>11000</v>
+      </c>
+      <c r="DY11">
+        <v>0.95</v>
+      </c>
+      <c r="DZ11">
+        <v>0.1</v>
+      </c>
+      <c r="EA11" t="b">
+        <v>0</v>
+      </c>
+      <c r="EB11" t="b">
+        <v>0</v>
+      </c>
       <c r="EC11" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="ED11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EF11" t="b">
         <v>1</v>
       </c>
+      <c r="EG11">
+        <v>12000</v>
+      </c>
+      <c r="EH11">
+        <v>23000</v>
+      </c>
+      <c r="EI11">
+        <v>0.95</v>
+      </c>
+      <c r="EJ11">
+        <v>0.1</v>
+      </c>
       <c r="EK11" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="EL11" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="EM11">
         <v>96</v>
       </c>
       <c r="EN11" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="EO11">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="EP11" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="EQ11">
         <v>30</v>
@@ -8805,22 +8811,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F12" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J12">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -8829,7 +8835,7 @@
         <v>2.6</v>
       </c>
       <c r="M12">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -8844,7 +8850,7 @@
         <v>1</v>
       </c>
       <c r="R12">
-        <v>2012000</v>
+        <v>1720000</v>
       </c>
       <c r="S12" t="s">
         <v>218</v>
@@ -8892,10 +8898,10 @@
         <v>1</v>
       </c>
       <c r="AK12">
-        <v>15000000</v>
+        <v>3850000</v>
       </c>
       <c r="AL12" t="s">
-        <v>221</v>
+        <v>168</v>
       </c>
       <c r="AM12">
         <v>55</v>
@@ -8928,7 +8934,7 @@
         <v>2400</v>
       </c>
       <c r="AW12" t="s">
-        <v>224</v>
+        <v>174</v>
       </c>
       <c r="AX12">
         <v>55</v>
@@ -8958,7 +8964,7 @@
         <v>1</v>
       </c>
       <c r="BL12" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="BM12">
         <v>2</v>
@@ -8967,7 +8973,7 @@
         <v>9</v>
       </c>
       <c r="BO12" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="BP12">
         <v>0</v>
@@ -8979,17 +8985,17 @@
         <v>1</v>
       </c>
       <c r="BV12" t="s">
+        <v>186</v>
+      </c>
+      <c r="BW12">
+        <v>2</v>
+      </c>
+      <c r="BX12">
+        <v>9</v>
+      </c>
+      <c r="BY12" t="s">
         <v>181</v>
       </c>
-      <c r="BW12">
-        <v>2</v>
-      </c>
-      <c r="BX12">
-        <v>9</v>
-      </c>
-      <c r="BY12" t="s">
-        <v>177</v>
-      </c>
       <c r="BZ12">
         <v>0</v>
       </c>
@@ -9000,7 +9006,7 @@
         <v>1</v>
       </c>
       <c r="CF12" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="CG12">
         <v>2</v>
@@ -9009,7 +9015,7 @@
         <v>9</v>
       </c>
       <c r="CI12" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CJ12">
         <v>0</v>
@@ -9021,7 +9027,7 @@
         <v>1</v>
       </c>
       <c r="CO12" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CP12">
         <v>0</v>
@@ -9033,7 +9039,7 @@
         <v>1</v>
       </c>
       <c r="DM12" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="DN12">
         <v>0.05</v>
@@ -9048,10 +9054,10 @@
         <v>8</v>
       </c>
       <c r="DR12" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="DS12" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="DT12">
         <v>0</v>
@@ -9063,7 +9069,7 @@
         <v>1</v>
       </c>
       <c r="EC12" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="ED12">
         <v>0</v>
@@ -9075,25 +9081,25 @@
         <v>1</v>
       </c>
       <c r="EK12" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="EL12" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="EM12">
         <v>96</v>
       </c>
       <c r="EN12" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="EO12">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="EP12" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="EQ12">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="ER12">
         <v>0</v>
@@ -9110,22 +9116,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F13" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J13">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -9134,7 +9140,7 @@
         <v>2.6</v>
       </c>
       <c r="M13">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -9149,10 +9155,10 @@
         <v>1</v>
       </c>
       <c r="R13">
-        <v>2896000</v>
+        <v>2455000</v>
       </c>
       <c r="S13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="T13" t="s">
         <v>162</v>
@@ -9197,10 +9203,10 @@
         <v>1</v>
       </c>
       <c r="AK13">
-        <v>15000000</v>
+        <v>3850000</v>
       </c>
       <c r="AL13" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AM13">
         <v>55</v>
@@ -9230,10 +9236,10 @@
         <v>1</v>
       </c>
       <c r="AV13">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="AW13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AX13">
         <v>55</v>
@@ -9263,7 +9269,7 @@
         <v>1</v>
       </c>
       <c r="BL13" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="BM13">
         <v>2</v>
@@ -9272,7 +9278,7 @@
         <v>9</v>
       </c>
       <c r="BO13" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="BP13">
         <v>0</v>
@@ -9284,17 +9290,17 @@
         <v>1</v>
       </c>
       <c r="BV13" t="s">
+        <v>186</v>
+      </c>
+      <c r="BW13">
+        <v>2</v>
+      </c>
+      <c r="BX13">
+        <v>9</v>
+      </c>
+      <c r="BY13" t="s">
         <v>181</v>
       </c>
-      <c r="BW13">
-        <v>2</v>
-      </c>
-      <c r="BX13">
-        <v>9</v>
-      </c>
-      <c r="BY13" t="s">
-        <v>177</v>
-      </c>
       <c r="BZ13">
         <v>0</v>
       </c>
@@ -9305,7 +9311,7 @@
         <v>1</v>
       </c>
       <c r="CF13" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="CG13">
         <v>2</v>
@@ -9314,7 +9320,7 @@
         <v>9</v>
       </c>
       <c r="CI13" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CJ13">
         <v>0</v>
@@ -9326,16 +9332,46 @@
         <v>1</v>
       </c>
       <c r="CO13" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CP13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR13" t="b">
         <v>1</v>
+      </c>
+      <c r="CS13" t="s">
+        <v>232</v>
+      </c>
+      <c r="CT13">
+        <v>75000</v>
+      </c>
+      <c r="CU13">
+        <v>20000</v>
+      </c>
+      <c r="CV13">
+        <v>7200</v>
+      </c>
+      <c r="CW13">
+        <v>11000</v>
+      </c>
+      <c r="CX13">
+        <v>100000</v>
+      </c>
+      <c r="CY13">
+        <v>0.9</v>
+      </c>
+      <c r="CZ13">
+        <v>0.8</v>
+      </c>
+      <c r="DA13" t="b">
+        <v>0</v>
+      </c>
+      <c r="DB13" t="b">
+        <v>0</v>
       </c>
       <c r="DM13" t="s">
         <v>237</v>
@@ -9353,10 +9389,10 @@
         <v>8</v>
       </c>
       <c r="DR13" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="DS13" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="DT13">
         <v>0</v>
@@ -9368,7 +9404,7 @@
         <v>1</v>
       </c>
       <c r="EC13" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="ED13">
         <v>0</v>
@@ -9380,22 +9416,22 @@
         <v>1</v>
       </c>
       <c r="EK13" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="EL13" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="EM13">
         <v>96</v>
       </c>
       <c r="EN13" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="EO13">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="EP13" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="EQ13">
         <v>0</v>
@@ -9415,22 +9451,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F14" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J14">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -9439,7 +9475,7 @@
         <v>2.6</v>
       </c>
       <c r="M14">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -9454,7 +9490,7 @@
         <v>1</v>
       </c>
       <c r="R14">
-        <v>945000</v>
+        <v>1546000</v>
       </c>
       <c r="S14" t="s">
         <v>220</v>
@@ -9502,13 +9538,13 @@
         <v>1</v>
       </c>
       <c r="AK14">
-        <v>15000000</v>
+        <v>3850000</v>
       </c>
       <c r="AL14" t="s">
-        <v>221</v>
+        <v>168</v>
       </c>
       <c r="AM14">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="AN14" t="s">
         <v>162</v>
@@ -9535,10 +9571,10 @@
         <v>1</v>
       </c>
       <c r="AV14">
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="AW14" t="s">
-        <v>225</v>
+        <v>174</v>
       </c>
       <c r="AX14">
         <v>55</v>
@@ -9568,7 +9604,7 @@
         <v>1</v>
       </c>
       <c r="BL14" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="BM14">
         <v>2</v>
@@ -9577,7 +9613,7 @@
         <v>9</v>
       </c>
       <c r="BO14" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="BP14">
         <v>0</v>
@@ -9589,17 +9625,17 @@
         <v>1</v>
       </c>
       <c r="BV14" t="s">
+        <v>186</v>
+      </c>
+      <c r="BW14">
+        <v>2</v>
+      </c>
+      <c r="BX14">
+        <v>9</v>
+      </c>
+      <c r="BY14" t="s">
         <v>181</v>
       </c>
-      <c r="BW14">
-        <v>2</v>
-      </c>
-      <c r="BX14">
-        <v>9</v>
-      </c>
-      <c r="BY14" t="s">
-        <v>177</v>
-      </c>
       <c r="BZ14">
         <v>0</v>
       </c>
@@ -9610,7 +9646,7 @@
         <v>1</v>
       </c>
       <c r="CF14" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="CG14">
         <v>2</v>
@@ -9619,7 +9655,7 @@
         <v>9</v>
       </c>
       <c r="CI14" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CJ14">
         <v>0</v>
@@ -9631,7 +9667,7 @@
         <v>1</v>
       </c>
       <c r="CO14" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CP14">
         <v>0</v>
@@ -9643,7 +9679,7 @@
         <v>1</v>
       </c>
       <c r="DM14" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="DN14">
         <v>0.05</v>
@@ -9658,10 +9694,10 @@
         <v>8</v>
       </c>
       <c r="DR14" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="DS14" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="DT14">
         <v>0</v>
@@ -9673,7 +9709,7 @@
         <v>1</v>
       </c>
       <c r="EC14" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="ED14">
         <v>0</v>
@@ -9685,25 +9721,25 @@
         <v>1</v>
       </c>
       <c r="EK14" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="EL14" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="EM14">
         <v>96</v>
       </c>
       <c r="EN14" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="EO14">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="EP14" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="EQ14">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="ER14">
         <v>0</v>
@@ -9720,22 +9756,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F15" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J15">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -9744,7 +9780,7 @@
         <v>2.6</v>
       </c>
       <c r="M15">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -9759,7 +9795,7 @@
         <v>1</v>
       </c>
       <c r="R15">
-        <v>945000</v>
+        <v>1546000</v>
       </c>
       <c r="S15" t="s">
         <v>220</v>
@@ -9807,13 +9843,13 @@
         <v>1</v>
       </c>
       <c r="AK15">
-        <v>15000000</v>
+        <v>3850000</v>
       </c>
       <c r="AL15" t="s">
-        <v>166</v>
+        <v>226</v>
       </c>
       <c r="AM15">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AN15" t="s">
         <v>162</v>
@@ -9840,10 +9876,10 @@
         <v>1</v>
       </c>
       <c r="AV15">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="AW15" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AX15">
         <v>55</v>
@@ -9873,7 +9909,7 @@
         <v>1</v>
       </c>
       <c r="BL15" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="BM15">
         <v>2</v>
@@ -9882,7 +9918,7 @@
         <v>9</v>
       </c>
       <c r="BO15" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="BP15">
         <v>0</v>
@@ -9894,17 +9930,17 @@
         <v>1</v>
       </c>
       <c r="BV15" t="s">
+        <v>186</v>
+      </c>
+      <c r="BW15">
+        <v>2</v>
+      </c>
+      <c r="BX15">
+        <v>9</v>
+      </c>
+      <c r="BY15" t="s">
         <v>181</v>
       </c>
-      <c r="BW15">
-        <v>2</v>
-      </c>
-      <c r="BX15">
-        <v>9</v>
-      </c>
-      <c r="BY15" t="s">
-        <v>177</v>
-      </c>
       <c r="BZ15">
         <v>0</v>
       </c>
@@ -9915,7 +9951,7 @@
         <v>1</v>
       </c>
       <c r="CF15" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="CG15">
         <v>2</v>
@@ -9924,7 +9960,7 @@
         <v>9</v>
       </c>
       <c r="CI15" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CJ15">
         <v>0</v>
@@ -9936,7 +9972,7 @@
         <v>1</v>
       </c>
       <c r="CO15" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CP15">
         <v>0</v>
@@ -9948,7 +9984,7 @@
         <v>1</v>
       </c>
       <c r="DM15" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="DN15">
         <v>0.05</v>
@@ -9963,10 +9999,10 @@
         <v>8</v>
       </c>
       <c r="DR15" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="DS15" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="DT15">
         <v>0</v>
@@ -9978,7 +10014,7 @@
         <v>1</v>
       </c>
       <c r="EC15" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="ED15">
         <v>0</v>
@@ -9990,22 +10026,22 @@
         <v>1</v>
       </c>
       <c r="EK15" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="EL15" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="EM15">
         <v>96</v>
       </c>
       <c r="EN15" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="EO15">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="EP15" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="EQ15">
         <v>20</v>
@@ -10025,22 +10061,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F16" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J16">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -10049,7 +10085,7 @@
         <v>2.6</v>
       </c>
       <c r="M16">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -10064,10 +10100,10 @@
         <v>1</v>
       </c>
       <c r="R16">
-        <v>2012000</v>
+        <v>2896000</v>
       </c>
       <c r="S16" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="T16" t="s">
         <v>162</v>
@@ -10112,10 +10148,10 @@
         <v>1</v>
       </c>
       <c r="AK16">
-        <v>15000000</v>
+        <v>3850000</v>
       </c>
       <c r="AL16" t="s">
-        <v>164</v>
+        <v>226</v>
       </c>
       <c r="AM16">
         <v>55</v>
@@ -10145,10 +10181,10 @@
         <v>1</v>
       </c>
       <c r="AV16">
-        <v>3200</v>
+        <v>2100</v>
       </c>
       <c r="AW16" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AX16">
         <v>55</v>
@@ -10178,7 +10214,7 @@
         <v>1</v>
       </c>
       <c r="BL16" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="BM16">
         <v>2</v>
@@ -10187,7 +10223,7 @@
         <v>9</v>
       </c>
       <c r="BO16" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="BP16">
         <v>0</v>
@@ -10199,17 +10235,17 @@
         <v>1</v>
       </c>
       <c r="BV16" t="s">
+        <v>186</v>
+      </c>
+      <c r="BW16">
+        <v>2</v>
+      </c>
+      <c r="BX16">
+        <v>9</v>
+      </c>
+      <c r="BY16" t="s">
         <v>181</v>
       </c>
-      <c r="BW16">
-        <v>2</v>
-      </c>
-      <c r="BX16">
-        <v>9</v>
-      </c>
-      <c r="BY16" t="s">
-        <v>177</v>
-      </c>
       <c r="BZ16">
         <v>0</v>
       </c>
@@ -10220,7 +10256,7 @@
         <v>1</v>
       </c>
       <c r="CF16" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="CG16">
         <v>2</v>
@@ -10229,7 +10265,7 @@
         <v>9</v>
       </c>
       <c r="CI16" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CJ16">
         <v>0</v>
@@ -10241,7 +10277,7 @@
         <v>1</v>
       </c>
       <c r="CO16" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CP16">
         <v>0</v>
@@ -10253,7 +10289,7 @@
         <v>1</v>
       </c>
       <c r="DM16" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="DN16">
         <v>0.05</v>
@@ -10268,10 +10304,10 @@
         <v>8</v>
       </c>
       <c r="DR16" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="DS16" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="DT16">
         <v>0</v>
@@ -10283,7 +10319,7 @@
         <v>1</v>
       </c>
       <c r="EC16" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="ED16">
         <v>0</v>
@@ -10295,25 +10331,25 @@
         <v>1</v>
       </c>
       <c r="EK16" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="EL16" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="EM16">
         <v>96</v>
       </c>
       <c r="EN16" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="EO16">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="EP16" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="EQ16">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="ER16">
         <v>0</v>
@@ -10330,22 +10366,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F17" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J17">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -10354,7 +10390,7 @@
         <v>2.6</v>
       </c>
       <c r="M17">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -10369,10 +10405,10 @@
         <v>1</v>
       </c>
       <c r="R17">
-        <v>1720000</v>
+        <v>1009000</v>
       </c>
       <c r="S17" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="T17" t="s">
         <v>162</v>
@@ -10417,10 +10453,10 @@
         <v>1</v>
       </c>
       <c r="AK17">
-        <v>15000000</v>
+        <v>3850000</v>
       </c>
       <c r="AL17" t="s">
-        <v>222</v>
+        <v>166</v>
       </c>
       <c r="AM17">
         <v>35</v>
@@ -10450,10 +10486,10 @@
         <v>1</v>
       </c>
       <c r="AV17">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="AW17" t="s">
-        <v>224</v>
+        <v>174</v>
       </c>
       <c r="AX17">
         <v>55</v>
@@ -10483,7 +10519,7 @@
         <v>1</v>
       </c>
       <c r="BL17" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="BM17">
         <v>2</v>
@@ -10492,7 +10528,7 @@
         <v>9</v>
       </c>
       <c r="BO17" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="BP17">
         <v>0</v>
@@ -10504,17 +10540,17 @@
         <v>1</v>
       </c>
       <c r="BV17" t="s">
+        <v>186</v>
+      </c>
+      <c r="BW17">
+        <v>2</v>
+      </c>
+      <c r="BX17">
+        <v>9</v>
+      </c>
+      <c r="BY17" t="s">
         <v>181</v>
       </c>
-      <c r="BW17">
-        <v>2</v>
-      </c>
-      <c r="BX17">
-        <v>9</v>
-      </c>
-      <c r="BY17" t="s">
-        <v>177</v>
-      </c>
       <c r="BZ17">
         <v>0</v>
       </c>
@@ -10525,7 +10561,7 @@
         <v>1</v>
       </c>
       <c r="CF17" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="CG17">
         <v>2</v>
@@ -10534,7 +10570,7 @@
         <v>9</v>
       </c>
       <c r="CI17" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CJ17">
         <v>0</v>
@@ -10546,79 +10582,19 @@
         <v>1</v>
       </c>
       <c r="CO17" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CP17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CR17" t="b">
         <v>1</v>
       </c>
-      <c r="CS17" t="s">
-        <v>185</v>
-      </c>
-      <c r="CT17">
-        <v>75000</v>
-      </c>
-      <c r="CU17">
-        <v>20000</v>
-      </c>
-      <c r="CV17">
-        <v>7200</v>
-      </c>
-      <c r="CW17">
-        <v>11000</v>
-      </c>
-      <c r="CX17">
-        <v>100000</v>
-      </c>
-      <c r="CY17">
-        <v>0.9</v>
-      </c>
-      <c r="CZ17">
-        <v>0.8</v>
-      </c>
-      <c r="DA17" t="b">
-        <v>0</v>
-      </c>
-      <c r="DB17" t="b">
-        <v>0</v>
-      </c>
-      <c r="DC17" t="s">
-        <v>230</v>
-      </c>
-      <c r="DD17">
-        <v>50000</v>
-      </c>
-      <c r="DE17">
-        <v>15000</v>
-      </c>
-      <c r="DF17">
-        <v>7200</v>
-      </c>
-      <c r="DG17">
-        <v>7200</v>
-      </c>
-      <c r="DH17">
-        <v>50000</v>
-      </c>
-      <c r="DI17">
-        <v>0.9</v>
-      </c>
-      <c r="DJ17">
-        <v>0.8</v>
-      </c>
-      <c r="DK17" t="b">
-        <v>0</v>
-      </c>
-      <c r="DL17" t="b">
-        <v>0</v>
-      </c>
       <c r="DM17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="DN17">
         <v>0.05</v>
@@ -10633,10 +10609,10 @@
         <v>8</v>
       </c>
       <c r="DR17" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="DS17" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="DT17">
         <v>0</v>
@@ -10648,7 +10624,7 @@
         <v>1</v>
       </c>
       <c r="EC17" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="ED17">
         <v>0</v>
@@ -10660,25 +10636,25 @@
         <v>1</v>
       </c>
       <c r="EK17" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="EL17" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="EM17">
         <v>96</v>
       </c>
       <c r="EN17" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="EO17">
         <v>60</v>
       </c>
       <c r="EP17" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="EQ17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="ER17">
         <v>0</v>
@@ -10717,13 +10693,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>9</v>
@@ -11004,13 +10980,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G2">
-        <v>543</v>
+        <v>182</v>
       </c>
       <c r="H2">
         <v>96</v>
@@ -11028,10 +11004,10 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15120000</v>
+        <v>7480000</v>
       </c>
       <c r="N2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O2" t="s">
         <v>162</v>
@@ -11055,7 +11031,7 @@
         <v>1</v>
       </c>
       <c r="W2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Y2" t="s">
         <v>162</v>
@@ -11070,31 +11046,16 @@
         <v>163</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="b">
         <v>1</v>
       </c>
-      <c r="AF2">
-        <v>8630000</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>227</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>40</v>
-      </c>
-      <c r="AJ2" t="b">
-        <v>1</v>
-      </c>
       <c r="AK2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="AL2">
         <v>2</v>
@@ -11103,7 +11064,7 @@
         <v>9</v>
       </c>
       <c r="AN2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="AO2">
         <v>0</v>
@@ -11115,17 +11076,17 @@
         <v>1</v>
       </c>
       <c r="AU2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AV2">
+        <v>2</v>
+      </c>
+      <c r="AW2">
+        <v>9</v>
+      </c>
+      <c r="AX2" t="s">
         <v>181</v>
       </c>
-      <c r="AV2">
-        <v>2</v>
-      </c>
-      <c r="AW2">
-        <v>9</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>177</v>
-      </c>
       <c r="AY2">
         <v>0</v>
       </c>
@@ -11136,7 +11097,7 @@
         <v>1</v>
       </c>
       <c r="BE2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="BF2">
         <v>2</v>
@@ -11145,7 +11106,7 @@
         <v>9</v>
       </c>
       <c r="BH2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="BI2">
         <v>0</v>
@@ -11157,58 +11118,40 @@
         <v>1</v>
       </c>
       <c r="CA2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="CB2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE2" t="s">
-        <v>190</v>
-      </c>
-      <c r="CF2">
-        <v>15100</v>
-      </c>
-      <c r="CG2">
-        <v>15000</v>
-      </c>
-      <c r="CH2">
-        <v>0.95</v>
-      </c>
-      <c r="CI2">
-        <v>0.1</v>
-      </c>
-      <c r="CJ2" t="b">
-        <v>0</v>
-      </c>
-      <c r="CK2" t="b">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="CL2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CM2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="CN2">
         <v>96</v>
       </c>
       <c r="CO2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="CP2">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="CQ2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="CR2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="CS2">
         <v>0</v>
@@ -11225,13 +11168,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F3" t="s">
         <v>245</v>
       </c>
       <c r="G3">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="H3">
         <v>96</v>
@@ -11249,7 +11192,7 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6850000</v>
+        <v>7320000</v>
       </c>
       <c r="N3" t="s">
         <v>247</v>
@@ -11300,10 +11243,10 @@
         <v>1</v>
       </c>
       <c r="AF3">
-        <v>3260000</v>
+        <v>3300000</v>
       </c>
       <c r="AG3" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="AH3">
         <v>-20</v>
@@ -11315,7 +11258,7 @@
         <v>1</v>
       </c>
       <c r="AK3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="AL3">
         <v>2</v>
@@ -11324,7 +11267,7 @@
         <v>9</v>
       </c>
       <c r="AN3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="AO3">
         <v>0</v>
@@ -11336,17 +11279,17 @@
         <v>1</v>
       </c>
       <c r="AU3" t="s">
+        <v>186</v>
+      </c>
+      <c r="AV3">
+        <v>2</v>
+      </c>
+      <c r="AW3">
+        <v>9</v>
+      </c>
+      <c r="AX3" t="s">
         <v>181</v>
       </c>
-      <c r="AV3">
-        <v>2</v>
-      </c>
-      <c r="AW3">
-        <v>9</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>177</v>
-      </c>
       <c r="AY3">
         <v>0</v>
       </c>
@@ -11357,7 +11300,7 @@
         <v>1</v>
       </c>
       <c r="BE3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="BF3">
         <v>2</v>
@@ -11366,7 +11309,7 @@
         <v>9</v>
       </c>
       <c r="BH3" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="BI3">
         <v>1</v>
@@ -11378,7 +11321,7 @@
         <v>1</v>
       </c>
       <c r="BL3" t="s">
-        <v>183</v>
+        <v>249</v>
       </c>
       <c r="BM3">
         <v>75000</v>
@@ -11408,7 +11351,7 @@
         <v>0</v>
       </c>
       <c r="BV3" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="BW3">
         <v>0.05</v>
@@ -11423,10 +11366,10 @@
         <v>8</v>
       </c>
       <c r="CA3" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="CB3" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CC3">
         <v>1</v>
@@ -11435,13 +11378,13 @@
         <v>1</v>
       </c>
       <c r="CE3" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="CF3">
-        <v>6800</v>
+        <v>7300</v>
       </c>
       <c r="CG3">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="CH3">
         <v>0.95</v>
@@ -11456,25 +11399,25 @@
         <v>0</v>
       </c>
       <c r="CL3" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CM3" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="CN3">
         <v>96</v>
       </c>
       <c r="CO3" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="CP3">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="CQ3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="CR3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="CS3">
         <v>0</v>
@@ -11491,13 +11434,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F4" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G4">
-        <v>526</v>
+        <v>502</v>
       </c>
       <c r="H4">
         <v>96</v>
@@ -11515,10 +11458,10 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15360000</v>
+        <v>13990000</v>
       </c>
       <c r="N4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="O4" t="s">
         <v>162</v>
@@ -11542,7 +11485,7 @@
         <v>1</v>
       </c>
       <c r="W4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Y4" t="s">
         <v>162</v>
@@ -11557,16 +11500,31 @@
         <v>163</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE4" t="b">
         <v>1</v>
       </c>
+      <c r="AF4">
+        <v>5810000</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>228</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>40</v>
+      </c>
+      <c r="AJ4" t="b">
+        <v>1</v>
+      </c>
       <c r="AK4" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="AL4">
         <v>2</v>
@@ -11575,7 +11533,7 @@
         <v>9</v>
       </c>
       <c r="AN4" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="AO4">
         <v>0</v>
@@ -11587,17 +11545,17 @@
         <v>1</v>
       </c>
       <c r="AU4" t="s">
+        <v>186</v>
+      </c>
+      <c r="AV4">
+        <v>2</v>
+      </c>
+      <c r="AW4">
+        <v>9</v>
+      </c>
+      <c r="AX4" t="s">
         <v>181</v>
       </c>
-      <c r="AV4">
-        <v>2</v>
-      </c>
-      <c r="AW4">
-        <v>9</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>177</v>
-      </c>
       <c r="AY4">
         <v>0</v>
       </c>
@@ -11608,7 +11566,7 @@
         <v>1</v>
       </c>
       <c r="BE4" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="BF4">
         <v>2</v>
@@ -11617,7 +11575,7 @@
         <v>9</v>
       </c>
       <c r="BH4" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="BI4">
         <v>0</v>
@@ -11629,40 +11587,58 @@
         <v>1</v>
       </c>
       <c r="CA4" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="CB4" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CC4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE4" t="s">
-        <v>190</v>
+        <v>194</v>
+      </c>
+      <c r="CF4">
+        <v>14000</v>
+      </c>
+      <c r="CG4">
+        <v>14000</v>
+      </c>
+      <c r="CH4">
+        <v>0.95</v>
+      </c>
+      <c r="CI4">
+        <v>0.1</v>
+      </c>
+      <c r="CJ4" t="b">
+        <v>0</v>
+      </c>
+      <c r="CK4" t="b">
+        <v>0</v>
       </c>
       <c r="CL4" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CM4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="CN4">
         <v>96</v>
       </c>
       <c r="CO4" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="CP4">
         <v>12</v>
       </c>
       <c r="CQ4" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="CR4">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="CS4">
         <v>0</v>
@@ -11679,13 +11655,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G5">
-        <v>192</v>
+        <v>522</v>
       </c>
       <c r="H5">
         <v>96</v>
@@ -11703,10 +11679,10 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7730000</v>
+        <v>15930000</v>
       </c>
       <c r="N5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O5" t="s">
         <v>162</v>
@@ -11730,7 +11706,7 @@
         <v>1</v>
       </c>
       <c r="W5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Y5" t="s">
         <v>162</v>
@@ -11745,31 +11721,16 @@
         <v>163</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="b">
         <v>1</v>
       </c>
-      <c r="AF5">
-        <v>4380000</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>226</v>
-      </c>
-      <c r="AH5">
-        <v>-20</v>
-      </c>
-      <c r="AI5">
-        <v>50</v>
-      </c>
-      <c r="AJ5" t="b">
-        <v>1</v>
-      </c>
       <c r="AK5" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="AL5">
         <v>2</v>
@@ -11778,7 +11739,7 @@
         <v>9</v>
       </c>
       <c r="AN5" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="AO5">
         <v>0</v>
@@ -11790,17 +11751,17 @@
         <v>1</v>
       </c>
       <c r="AU5" t="s">
+        <v>186</v>
+      </c>
+      <c r="AV5">
+        <v>2</v>
+      </c>
+      <c r="AW5">
+        <v>9</v>
+      </c>
+      <c r="AX5" t="s">
         <v>181</v>
       </c>
-      <c r="AV5">
-        <v>2</v>
-      </c>
-      <c r="AW5">
-        <v>9</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>177</v>
-      </c>
       <c r="AY5">
         <v>0</v>
       </c>
@@ -11811,7 +11772,7 @@
         <v>1</v>
       </c>
       <c r="BE5" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="BF5">
         <v>2</v>
@@ -11820,70 +11781,97 @@
         <v>9</v>
       </c>
       <c r="BH5" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="BI5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK5" t="b">
         <v>1</v>
       </c>
+      <c r="BL5" t="s">
+        <v>250</v>
+      </c>
+      <c r="BM5">
+        <v>50000</v>
+      </c>
+      <c r="BN5">
+        <v>20000</v>
+      </c>
+      <c r="BO5">
+        <v>7200</v>
+      </c>
+      <c r="BP5">
+        <v>11000</v>
+      </c>
+      <c r="BQ5">
+        <v>100000</v>
+      </c>
+      <c r="BR5">
+        <v>0.9</v>
+      </c>
+      <c r="BS5">
+        <v>0.8</v>
+      </c>
+      <c r="BT5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>251</v>
+      </c>
+      <c r="BW5">
+        <v>0.05</v>
+      </c>
+      <c r="BX5">
+        <v>0.5</v>
+      </c>
+      <c r="BY5">
+        <v>0.8</v>
+      </c>
+      <c r="BZ5">
+        <v>8</v>
+      </c>
       <c r="CA5" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="CB5" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CC5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE5" t="s">
-        <v>190</v>
-      </c>
-      <c r="CF5">
-        <v>7700</v>
-      </c>
-      <c r="CG5">
-        <v>15000</v>
-      </c>
-      <c r="CH5">
-        <v>0.95</v>
-      </c>
-      <c r="CI5">
-        <v>0.1</v>
-      </c>
-      <c r="CJ5" t="b">
-        <v>0</v>
-      </c>
-      <c r="CK5" t="b">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="CL5" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CM5" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="CN5">
         <v>96</v>
       </c>
       <c r="CO5" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="CP5">
         <v>36</v>
       </c>
       <c r="CQ5" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="CR5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CS5">
         <v>0</v>
@@ -11922,13 +11910,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>9</v>
@@ -12239,13 +12227,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G2">
-        <v>2135</v>
+        <v>1714</v>
       </c>
       <c r="H2">
         <v>96</v>
@@ -12263,10 +12251,10 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1002000000</v>
+        <v>604400000</v>
       </c>
       <c r="N2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="O2" t="s">
         <v>162</v>
@@ -12290,7 +12278,7 @@
         <v>1</v>
       </c>
       <c r="W2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Y2" t="s">
         <v>162</v>
@@ -12305,31 +12293,16 @@
         <v>163</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="b">
         <v>1</v>
       </c>
-      <c r="AF2">
-        <v>1229000000</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>248</v>
-      </c>
-      <c r="AH2">
-        <v>-20</v>
-      </c>
-      <c r="AI2">
-        <v>50</v>
-      </c>
-      <c r="AJ2" t="b">
-        <v>1</v>
-      </c>
       <c r="AK2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="AL2">
         <v>2</v>
@@ -12338,38 +12311,29 @@
         <v>9</v>
       </c>
       <c r="AN2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="AO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ2" t="b">
         <v>1</v>
       </c>
-      <c r="AR2">
-        <v>104300000</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>255</v>
-      </c>
-      <c r="AT2" t="b">
-        <v>1</v>
-      </c>
       <c r="AU2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AV2">
+        <v>2</v>
+      </c>
+      <c r="AW2">
+        <v>9</v>
+      </c>
+      <c r="AX2" t="s">
         <v>181</v>
       </c>
-      <c r="AV2">
-        <v>2</v>
-      </c>
-      <c r="AW2">
-        <v>9</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>177</v>
-      </c>
       <c r="AY2">
         <v>0</v>
       </c>
@@ -12380,7 +12344,7 @@
         <v>1</v>
       </c>
       <c r="BE2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="BF2">
         <v>2</v>
@@ -12389,97 +12353,22 @@
         <v>9</v>
       </c>
       <c r="BH2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="BI2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BK2" t="b">
         <v>1</v>
       </c>
-      <c r="BL2" t="s">
-        <v>229</v>
-      </c>
-      <c r="BM2">
-        <v>750000</v>
-      </c>
-      <c r="BN2">
-        <v>25000</v>
-      </c>
-      <c r="BO2">
-        <v>11000</v>
-      </c>
-      <c r="BP2">
-        <v>22000</v>
-      </c>
-      <c r="BQ2">
-        <v>200000</v>
-      </c>
-      <c r="BR2">
-        <v>0.9</v>
-      </c>
-      <c r="BS2">
-        <v>0.8</v>
-      </c>
-      <c r="BT2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BU2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>186</v>
-      </c>
-      <c r="BW2">
-        <v>750000</v>
-      </c>
-      <c r="BX2">
-        <v>25000</v>
-      </c>
-      <c r="BY2">
-        <v>11000</v>
-      </c>
-      <c r="BZ2">
-        <v>22000</v>
-      </c>
-      <c r="CA2">
-        <v>200000</v>
-      </c>
-      <c r="CB2">
-        <v>0.9</v>
-      </c>
-      <c r="CC2">
-        <v>0.8</v>
-      </c>
-      <c r="CD2" t="b">
-        <v>0</v>
-      </c>
-      <c r="CE2" t="b">
-        <v>0</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>188</v>
-      </c>
-      <c r="CG2">
-        <v>0.05</v>
-      </c>
-      <c r="CH2">
-        <v>0.5</v>
-      </c>
-      <c r="CI2">
-        <v>0.8</v>
-      </c>
-      <c r="CJ2">
-        <v>8</v>
-      </c>
       <c r="CK2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="CL2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CM2">
         <v>0</v>
@@ -12488,25 +12377,25 @@
         <v>0</v>
       </c>
       <c r="CO2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="CV2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CW2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="CX2">
         <v>96</v>
       </c>
       <c r="CY2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="CZ2">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="DA2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="DB2">
         <v>30</v>
@@ -12526,13 +12415,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F3" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G3">
-        <v>4819</v>
+        <v>4924</v>
       </c>
       <c r="H3">
         <v>96</v>
@@ -12550,10 +12439,10 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1211000000</v>
+        <v>1140500000</v>
       </c>
       <c r="N3" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="O3" t="s">
         <v>162</v>
@@ -12577,7 +12466,7 @@
         <v>1</v>
       </c>
       <c r="W3" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Y3" t="s">
         <v>162</v>
@@ -12601,7 +12490,7 @@
         <v>1</v>
       </c>
       <c r="AK3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="AL3">
         <v>2</v>
@@ -12610,7 +12499,7 @@
         <v>9</v>
       </c>
       <c r="AN3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="AO3">
         <v>0</v>
@@ -12622,17 +12511,17 @@
         <v>1</v>
       </c>
       <c r="AU3" t="s">
+        <v>186</v>
+      </c>
+      <c r="AV3">
+        <v>2</v>
+      </c>
+      <c r="AW3">
+        <v>9</v>
+      </c>
+      <c r="AX3" t="s">
         <v>181</v>
       </c>
-      <c r="AV3">
-        <v>2</v>
-      </c>
-      <c r="AW3">
-        <v>9</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>177</v>
-      </c>
       <c r="AY3">
         <v>0</v>
       </c>
@@ -12643,7 +12532,7 @@
         <v>1</v>
       </c>
       <c r="BE3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="BF3">
         <v>2</v>
@@ -12652,7 +12541,7 @@
         <v>9</v>
       </c>
       <c r="BH3" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="BI3">
         <v>1</v>
@@ -12664,7 +12553,7 @@
         <v>1</v>
       </c>
       <c r="BL3" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="BM3">
         <v>500000</v>
@@ -12694,7 +12583,7 @@
         <v>0</v>
       </c>
       <c r="CF3" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="CG3">
         <v>0.05</v>
@@ -12709,10 +12598,10 @@
         <v>8</v>
       </c>
       <c r="CK3" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="CL3" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CM3">
         <v>0</v>
@@ -12721,28 +12610,28 @@
         <v>0</v>
       </c>
       <c r="CO3" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="CV3" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CW3" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="CX3">
         <v>96</v>
       </c>
       <c r="CY3" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="CZ3">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="DA3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="DB3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="DC3">
         <v>0</v>
@@ -12781,7 +12670,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>9</v>
@@ -12939,7 +12828,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F2">
         <v>96</v>
@@ -12957,22 +12846,22 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>32100000</v>
+        <v>13100000</v>
       </c>
       <c r="L2" t="s">
-        <v>227</v>
+        <v>264</v>
       </c>
       <c r="M2">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="O2">
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -12981,7 +12870,7 @@
         <v>9</v>
       </c>
       <c r="S2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="AN2">
         <v>1</v>
@@ -12993,10 +12882,10 @@
         <v>1</v>
       </c>
       <c r="AQ2">
-        <v>16050000</v>
+        <v>6550000</v>
       </c>
       <c r="AR2">
-        <v>32100000</v>
+        <v>13100000</v>
       </c>
       <c r="AS2">
         <v>0.95</v>
@@ -13011,19 +12900,19 @@
         <v>1</v>
       </c>
       <c r="AW2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="AX2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AY2">
         <v>96</v>
       </c>
       <c r="AZ2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="BA2">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="BB2">
         <v>0</v>
@@ -13040,7 +12929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F3">
         <v>96</v>
@@ -13058,10 +12947,10 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>14000000</v>
+        <v>12300000</v>
       </c>
       <c r="L3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -13073,7 +12962,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -13082,7 +12971,7 @@
         <v>9</v>
       </c>
       <c r="S3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="AN3">
         <v>1</v>
@@ -13094,10 +12983,10 @@
         <v>1</v>
       </c>
       <c r="AQ3">
-        <v>7000000</v>
+        <v>6150000</v>
       </c>
       <c r="AR3">
-        <v>14000000</v>
+        <v>12300000</v>
       </c>
       <c r="AS3">
         <v>0.95</v>
@@ -13112,19 +13001,19 @@
         <v>1</v>
       </c>
       <c r="AW3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="AX3" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AY3">
         <v>96</v>
       </c>
       <c r="AZ3" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="BA3">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="BB3">
         <v>0</v>
@@ -13141,7 +13030,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F4">
         <v>96</v>
@@ -13159,22 +13048,22 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>59800000</v>
+        <v>40300000</v>
       </c>
       <c r="L4" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="M4">
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="N4">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="O4">
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -13183,7 +13072,7 @@
         <v>9</v>
       </c>
       <c r="S4" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="AN4">
         <v>1</v>
@@ -13195,10 +13084,10 @@
         <v>1</v>
       </c>
       <c r="AQ4">
-        <v>29900000</v>
+        <v>20150000</v>
       </c>
       <c r="AR4">
-        <v>59800000</v>
+        <v>40300000</v>
       </c>
       <c r="AS4">
         <v>0.95</v>
@@ -13213,16 +13102,16 @@
         <v>1</v>
       </c>
       <c r="AW4" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="AX4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AY4">
         <v>96</v>
       </c>
       <c r="AZ4" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="BA4">
         <v>12</v>
@@ -13242,7 +13131,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F5">
         <v>96</v>
@@ -13260,22 +13149,22 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>15500000</v>
+        <v>76100000</v>
       </c>
       <c r="L5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N5">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="O5">
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -13284,7 +13173,7 @@
         <v>9</v>
       </c>
       <c r="S5" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="AN5">
         <v>1</v>
@@ -13296,10 +13185,10 @@
         <v>1</v>
       </c>
       <c r="AQ5">
-        <v>7750000</v>
+        <v>38050000</v>
       </c>
       <c r="AR5">
-        <v>15500000</v>
+        <v>76100000</v>
       </c>
       <c r="AS5">
         <v>0.95</v>
@@ -13314,19 +13203,19 @@
         <v>1</v>
       </c>
       <c r="AW5" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="AX5" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AY5">
         <v>96</v>
       </c>
       <c r="AZ5" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="BA5">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="BB5">
         <v>0</v>
@@ -13343,7 +13232,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F6">
         <v>96</v>
@@ -13361,16 +13250,16 @@
         <v>1</v>
       </c>
       <c r="AG6">
-        <v>20000</v>
+        <v>38800</v>
       </c>
       <c r="AH6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AI6" t="b">
         <v>1</v>
       </c>
       <c r="AJ6" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="AK6">
         <v>2</v>
@@ -13379,7 +13268,7 @@
         <v>9</v>
       </c>
       <c r="AM6" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AN6">
         <v>0</v>
@@ -13391,19 +13280,19 @@
         <v>1</v>
       </c>
       <c r="AW6" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AX6" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AY6">
         <v>96</v>
       </c>
       <c r="AZ6" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="BA6">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="BB6">
         <v>0</v>
@@ -13420,7 +13309,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F7">
         <v>96</v>
@@ -13438,16 +13327,16 @@
         <v>1</v>
       </c>
       <c r="AG7">
-        <v>38100</v>
+        <v>20000</v>
       </c>
       <c r="AH7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AI7" t="b">
         <v>1</v>
       </c>
       <c r="AJ7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="AK7">
         <v>2</v>
@@ -13456,7 +13345,7 @@
         <v>9</v>
       </c>
       <c r="AM7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AN7">
         <v>0</v>
@@ -13468,16 +13357,16 @@
         <v>1</v>
       </c>
       <c r="AW7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AX7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AY7">
         <v>96</v>
       </c>
       <c r="AZ7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="BA7">
         <v>60</v>
@@ -13519,7 +13408,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>9</v>
@@ -13555,64 +13444,64 @@
         <v>128</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AL1" s="1" t="s">
         <v>137</v>
@@ -13641,7 +13530,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F2">
         <v>96</v>
@@ -13659,10 +13548,10 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>852000</v>
+        <v>891000</v>
       </c>
       <c r="L2">
-        <v>5380000</v>
+        <v>4800000</v>
       </c>
       <c r="M2">
         <v>0.95</v>
@@ -13677,19 +13566,19 @@
         <v>1</v>
       </c>
       <c r="Q2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AL2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AM2">
         <v>96</v>
       </c>
       <c r="AN2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="AO2">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="AP2">
         <v>0</v>
@@ -13706,7 +13595,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F3">
         <v>96</v>
@@ -13724,10 +13613,10 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1056000</v>
+        <v>1147000</v>
       </c>
       <c r="L3">
-        <v>4310000</v>
+        <v>4360000</v>
       </c>
       <c r="M3">
         <v>0.95</v>
@@ -13742,16 +13631,16 @@
         <v>1</v>
       </c>
       <c r="Q3" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AL3" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AM3">
         <v>96</v>
       </c>
       <c r="AN3" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="AO3">
         <v>48</v>
@@ -13771,7 +13660,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F4">
         <v>96</v>
@@ -13789,10 +13678,10 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1875000</v>
+        <v>2458000</v>
       </c>
       <c r="L4">
-        <v>8240000</v>
+        <v>8880000</v>
       </c>
       <c r="M4">
         <v>0.95</v>
@@ -13807,19 +13696,19 @@
         <v>1</v>
       </c>
       <c r="Q4" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AL4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AM4">
         <v>96</v>
       </c>
       <c r="AN4" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="AO4">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="AP4">
         <v>0</v>
@@ -13836,7 +13725,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F5">
         <v>96</v>
@@ -13854,10 +13743,10 @@
         <v>1</v>
       </c>
       <c r="U5">
-        <v>2150000000</v>
+        <v>2254000000</v>
       </c>
       <c r="V5">
-        <v>9790000000</v>
+        <v>6300000000</v>
       </c>
       <c r="W5">
         <v>0.95</v>
@@ -13872,19 +13761,19 @@
         <v>1</v>
       </c>
       <c r="AA5" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AL5" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AM5">
         <v>96</v>
       </c>
       <c r="AN5" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="AO5">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="AP5">
         <v>0</v>
@@ -13901,7 +13790,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F6">
         <v>96</v>
@@ -13919,10 +13808,10 @@
         <v>1</v>
       </c>
       <c r="U6">
-        <v>1150000000</v>
+        <v>863000000</v>
       </c>
       <c r="V6">
-        <v>5090000000</v>
+        <v>5960000000</v>
       </c>
       <c r="W6">
         <v>0.95</v>
@@ -13937,19 +13826,19 @@
         <v>1</v>
       </c>
       <c r="AA6" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AL6" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AM6">
         <v>96</v>
       </c>
       <c r="AN6" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="AO6">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AP6">
         <v>0</v>
@@ -13966,7 +13855,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F7">
         <v>96</v>
@@ -13984,10 +13873,10 @@
         <v>1</v>
       </c>
       <c r="U7">
-        <v>1160000000</v>
+        <v>950000000</v>
       </c>
       <c r="V7">
-        <v>4320000000</v>
+        <v>4330000000</v>
       </c>
       <c r="W7">
         <v>0.95</v>
@@ -14002,19 +13891,19 @@
         <v>1</v>
       </c>
       <c r="AA7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AL7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AM7">
         <v>96</v>
       </c>
       <c r="AN7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="AO7">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AP7">
         <v>0</v>
@@ -14031,7 +13920,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F8">
         <v>96</v>
@@ -14049,10 +13938,10 @@
         <v>1</v>
       </c>
       <c r="AE8">
-        <v>201100000</v>
+        <v>89200000</v>
       </c>
       <c r="AF8">
-        <v>668000000</v>
+        <v>517000000</v>
       </c>
       <c r="AG8">
         <v>0.95</v>
@@ -14067,19 +13956,19 @@
         <v>1</v>
       </c>
       <c r="AK8" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AL8" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AM8">
         <v>96</v>
       </c>
       <c r="AN8" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="AO8">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AP8">
         <v>0</v>
@@ -14096,7 +13985,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F9">
         <v>96</v>
@@ -14114,10 +14003,10 @@
         <v>1</v>
       </c>
       <c r="AE9">
-        <v>90500000</v>
+        <v>157400000</v>
       </c>
       <c r="AF9">
-        <v>476000000</v>
+        <v>802000000</v>
       </c>
       <c r="AG9">
         <v>0.95</v>
@@ -14132,19 +14021,19 @@
         <v>1</v>
       </c>
       <c r="AK9" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AL9" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AM9">
         <v>96</v>
       </c>
       <c r="AN9" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="AO9">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="AP9">
         <v>0</v>
@@ -14161,7 +14050,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F10">
         <v>96</v>
@@ -14179,10 +14068,10 @@
         <v>1</v>
       </c>
       <c r="AE10">
-        <v>94300000</v>
+        <v>95700000</v>
       </c>
       <c r="AF10">
-        <v>561000000</v>
+        <v>582000000</v>
       </c>
       <c r="AG10">
         <v>0.95</v>
@@ -14197,19 +14086,19 @@
         <v>1</v>
       </c>
       <c r="AK10" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AL10" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AM10">
         <v>96</v>
       </c>
       <c r="AN10" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="AO10">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="AP10">
         <v>0</v>
